--- a/BackTest/2019-10-17 BackTest HYC.xlsx
+++ b/BackTest/2019-10-17 BackTest HYC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>46.66666666666674</v>
+      </c>
       <c r="L12" t="n">
         <v>6.904999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>40.74074074074079</v>
+      </c>
       <c r="L13" t="n">
         <v>6.919</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3200000000000012</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>9.09090909090887</v>
+      </c>
       <c r="L14" t="n">
         <v>6.928</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.370000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>25.92592592592566</v>
+      </c>
       <c r="L15" t="n">
         <v>6.935</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4000000000000004</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-8.333333333333147</v>
+      </c>
       <c r="L16" t="n">
         <v>6.938999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4300000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-4.347826086956421</v>
+      </c>
       <c r="L17" t="n">
         <v>6.933999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-23.80952380952373</v>
+      </c>
       <c r="L18" t="n">
         <v>6.931999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4800000000000004</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571441</v>
+      </c>
       <c r="L19" t="n">
         <v>6.930999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5200000000000005</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-18.18181818181822</v>
+      </c>
       <c r="L20" t="n">
         <v>6.93</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-21.73913043478288</v>
+      </c>
       <c r="L21" t="n">
         <v>6.925</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-21.73913043478288</v>
+      </c>
       <c r="L22" t="n">
         <v>6.92</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.5500000000000007</v>
       </c>
       <c r="K23" t="n">
-        <v>12.72727272727276</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L23" t="n">
         <v>6.913000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>0.5900000000000007</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-63.63636363636355</v>
       </c>
       <c r="L24" t="n">
         <v>6.904000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>0.6800000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>-27.58620689655175</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L25" t="n">
         <v>6.881</v>
@@ -1564,7 +1586,7 @@
         <v>0.7300000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
+        <v>-73.3333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>6.856</v>
@@ -1613,7 +1635,7 @@
         <v>0.8200000000000003</v>
       </c>
       <c r="K27" t="n">
-        <v>-27.27272727272723</v>
+        <v>-31.57894736842109</v>
       </c>
       <c r="L27" t="n">
         <v>6.843000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-20.63492063492062</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L28" t="n">
         <v>6.832000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>0.8399999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-24.59016393442631</v>
+        <v>-31.25000000000023</v>
       </c>
       <c r="L29" t="n">
         <v>6.818000000000001</v>
@@ -1760,7 +1782,7 @@
         <v>0.9100000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-6.250000000000008</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L30" t="n">
         <v>6.815</v>
@@ -1809,7 +1831,7 @@
         <v>0.9500000000000002</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.615384615384658</v>
+        <v>4.761904761904883</v>
       </c>
       <c r="L31" t="n">
         <v>6.817</v>
@@ -1860,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.42857142857145</v>
+        <v>-2.222222222222178</v>
       </c>
       <c r="L32" t="n">
         <v>6.814</v>
@@ -1911,7 +1933,7 @@
         <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>-19.48051948051954</v>
+        <v>-8.333333333333348</v>
       </c>
       <c r="L33" t="n">
         <v>6.806</v>
@@ -1962,7 +1984,7 @@
         <v>1.13</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.641975308642023</v>
+        <v>24.44444444444436</v>
       </c>
       <c r="L34" t="n">
         <v>6.808</v>
@@ -2013,7 +2035,7 @@
         <v>1.2</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.024096385542153</v>
+        <v>48.93617021276589</v>
       </c>
       <c r="L35" t="n">
         <v>6.826000000000001</v>
@@ -2064,7 +2086,7 @@
         <v>1.2</v>
       </c>
       <c r="K36" t="n">
-        <v>-2.500000000000059</v>
+        <v>36.84210526315782</v>
       </c>
       <c r="L36" t="n">
         <v>6.849000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>1.22</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.265822784810101</v>
+        <v>28.20512820512831</v>
       </c>
       <c r="L37" t="n">
         <v>6.861000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>1.22</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>26.31578947368436</v>
       </c>
       <c r="L38" t="n">
         <v>6.872000000000002</v>
@@ -2217,7 +2239,7 @@
         <v>1.22</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.405405405405415</v>
+        <v>9.677419354838802</v>
       </c>
       <c r="L39" t="n">
         <v>6.882000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>1.249999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>4.10958904109581</v>
+        <v>6.666666666666549</v>
       </c>
       <c r="L40" t="n">
         <v>6.888000000000003</v>
@@ -2319,7 +2341,7 @@
         <v>1.249999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>5.555555555555576</v>
+        <v>27.99999999999986</v>
       </c>
       <c r="L41" t="n">
         <v>6.890000000000003</v>
@@ -2370,7 +2392,7 @@
         <v>1.359999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>-8.43373493975899</v>
+        <v>10.34482758620704</v>
       </c>
       <c r="L42" t="n">
         <v>6.886000000000003</v>
@@ -2421,7 +2443,7 @@
         <v>1.429999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>2.272727272727232</v>
+        <v>13.33333333333343</v>
       </c>
       <c r="L43" t="n">
         <v>6.896000000000003</v>
@@ -2472,7 +2494,7 @@
         <v>1.429999999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>7.14285714285712</v>
+        <v>-13.0434782608698</v>
       </c>
       <c r="L44" t="n">
         <v>6.900000000000003</v>
@@ -2523,7 +2545,7 @@
         <v>1.439999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>21.05263157894744</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L45" t="n">
         <v>6.898000000000003</v>
@@ -2574,7 +2596,7 @@
         <v>1.489999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>21.0526315789473</v>
+        <v>-18.51851851851881</v>
       </c>
       <c r="L46" t="n">
         <v>6.891000000000003</v>
@@ -2625,7 +2647,7 @@
         <v>1.5</v>
       </c>
       <c r="K47" t="n">
-        <v>11.76470588235296</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>6.887000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>1.5</v>
       </c>
       <c r="K48" t="n">
-        <v>10.44776119402989</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L48" t="n">
         <v>6.883000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>1.53</v>
       </c>
       <c r="K49" t="n">
-        <v>4.347826086956555</v>
+        <v>-35.71428571428545</v>
       </c>
       <c r="L49" t="n">
         <v>6.876</v>
@@ -2778,7 +2800,7 @@
         <v>1.54</v>
       </c>
       <c r="K50" t="n">
-        <v>-7.93650793650791</v>
+        <v>-37.9310344827583</v>
       </c>
       <c r="L50" t="n">
         <v>6.865</v>
@@ -2829,7 +2851,7 @@
         <v>1.56</v>
       </c>
       <c r="K51" t="n">
-        <v>-18.03278688524594</v>
+        <v>-10.00000000000013</v>
       </c>
       <c r="L51" t="n">
         <v>6.852000000000001</v>
@@ -2880,7 +2902,7 @@
         <v>1.58</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.79310344827587</v>
+        <v>-73.33333333333191</v>
       </c>
       <c r="L52" t="n">
         <v>6.848000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>1.62</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.090909090909062</v>
+        <v>-78.94736842105145</v>
       </c>
       <c r="L53" t="n">
         <v>6.833000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>1.63</v>
       </c>
       <c r="K54" t="n">
-        <v>-23.99999999999984</v>
+        <v>-89.47368421052568</v>
       </c>
       <c r="L54" t="n">
         <v>6.817000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-24.00000000000006</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L55" t="n">
         <v>6.807</v>
@@ -3084,7 +3106,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>-24.00000000000006</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L56" t="n">
         <v>6.802000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>-20.83333333333346</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L57" t="n">
         <v>6.796000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>-20.83333333333346</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L58" t="n">
         <v>6.790000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>1.769999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-30.90909090909096</v>
+        <v>-39.13043478260887</v>
       </c>
       <c r="L59" t="n">
         <v>6.780000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>1.799999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-41.81818181818175</v>
+        <v>-41.66666666666679</v>
       </c>
       <c r="L60" t="n">
         <v>6.768000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>1.879999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-49.20634920634915</v>
+        <v>-53.33333333333356</v>
       </c>
       <c r="L61" t="n">
         <v>6.750000000000002</v>
@@ -3390,7 +3412,7 @@
         <v>1.899999999999999</v>
       </c>
       <c r="K62" t="n">
-        <v>-33.33333333333344</v>
+        <v>-35.7142857142861</v>
       </c>
       <c r="L62" t="n">
         <v>6.736000000000002</v>
@@ -3441,7 +3463,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>-35.84905660377341</v>
+        <v>-9.090909090909188</v>
       </c>
       <c r="L63" t="n">
         <v>6.732000000000002</v>
@@ -3492,7 +3514,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>-35.84905660377341</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L64" t="n">
         <v>6.729000000000002</v>
@@ -3543,7 +3565,7 @@
         <v>1.959999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-38.46153846153847</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="L65" t="n">
         <v>6.719000000000003</v>
@@ -3594,7 +3616,7 @@
         <v>2.019999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-16.98113207547169</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L66" t="n">
         <v>6.715000000000003</v>
@@ -3645,7 +3667,7 @@
         <v>2.039999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>-22.22222222222231</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L67" t="n">
         <v>6.709000000000003</v>
@@ -3696,7 +3718,7 @@
         <v>2.039999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>-22.22222222222231</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L68" t="n">
         <v>6.703000000000003</v>
@@ -3747,7 +3769,7 @@
         <v>2.059999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>-13.20754716981143</v>
+        <v>23.07692307692303</v>
       </c>
       <c r="L69" t="n">
         <v>6.706000000000003</v>
@@ -3798,7 +3820,7 @@
         <v>2.089999999999997</v>
       </c>
       <c r="K70" t="n">
-        <v>-16.36363636363642</v>
+        <v>52.38095238095298</v>
       </c>
       <c r="L70" t="n">
         <v>6.709000000000003</v>
@@ -3849,7 +3871,7 @@
         <v>2.119999999999997</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.142857142857199</v>
+        <v>54.54545454545509</v>
       </c>
       <c r="L71" t="n">
         <v>6.723000000000003</v>
@@ -3900,7 +3922,7 @@
         <v>2.119999999999997</v>
       </c>
       <c r="K72" t="n">
-        <v>-3.703703703703813</v>
+        <v>37.50000000000035</v>
       </c>
       <c r="L72" t="n">
         <v>6.735000000000004</v>
@@ -3951,7 +3973,7 @@
         <v>2.139999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>22.22222222222261</v>
       </c>
       <c r="L73" t="n">
         <v>6.739000000000003</v>
@@ -4002,7 +4024,7 @@
         <v>2.149999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>3.846153846153793</v>
+        <v>26.31578947368455</v>
       </c>
       <c r="L74" t="n">
         <v>6.744000000000002</v>
@@ -4053,7 +4075,7 @@
         <v>2.149999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.11111111111116</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L75" t="n">
         <v>6.749000000000002</v>
@@ -4104,7 +4126,7 @@
         <v>2.149999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>-11.11111111111116</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L76" t="n">
         <v>6.748000000000002</v>
@@ -4155,7 +4177,7 @@
         <v>2.239999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-25.92592592592603</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L77" t="n">
         <v>6.740000000000002</v>
@@ -4206,7 +4228,7 @@
         <v>2.329999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>-7.936507936507954</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L78" t="n">
         <v>6.741000000000002</v>
@@ -4257,7 +4279,7 @@
         <v>2.329999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>3.571428571428515</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L79" t="n">
         <v>6.740000000000002</v>
@@ -4308,7 +4330,7 @@
         <v>2.389999999999995</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.694915254237263</v>
+        <v>-25.92592592592583</v>
       </c>
       <c r="L80" t="n">
         <v>6.736000000000002</v>
@@ -4359,7 +4381,7 @@
         <v>2.509999999999994</v>
       </c>
       <c r="K81" t="n">
-        <v>30.1587301587303</v>
+        <v>12.82051282051284</v>
       </c>
       <c r="L81" t="n">
         <v>6.741000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>2.629999999999994</v>
       </c>
       <c r="K82" t="n">
-        <v>6.849315068493294</v>
+        <v>-10.20408163265308</v>
       </c>
       <c r="L82" t="n">
         <v>6.734</v>
@@ -4461,7 +4483,7 @@
         <v>2.649999999999993</v>
       </c>
       <c r="K83" t="n">
-        <v>1.449275362318822</v>
+        <v>-8.00000000000005</v>
       </c>
       <c r="L83" t="n">
         <v>6.731</v>
@@ -4512,7 +4534,7 @@
         <v>2.669999999999993</v>
       </c>
       <c r="K84" t="n">
-        <v>-1.408450704225334</v>
+        <v>-11.53846153846153</v>
       </c>
       <c r="L84" t="n">
         <v>6.725</v>
@@ -4563,7 +4585,7 @@
         <v>2.679999999999993</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.777777777777863</v>
+        <v>-13.20754716981143</v>
       </c>
       <c r="L85" t="n">
         <v>6.718000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>2.699999999999994</v>
       </c>
       <c r="K86" t="n">
-        <v>-8.82352941176471</v>
+        <v>8.695652173913086</v>
       </c>
       <c r="L86" t="n">
         <v>6.713000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>2.769999999999994</v>
       </c>
       <c r="K87" t="n">
-        <v>-15.06849315068506</v>
+        <v>-27.27272727272738</v>
       </c>
       <c r="L87" t="n">
         <v>6.710000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>2.789999999999994</v>
       </c>
       <c r="K88" t="n">
-        <v>-17.33333333333342</v>
+        <v>-30.43478260869571</v>
       </c>
       <c r="L88" t="n">
         <v>6.696000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K89" t="n">
-        <v>-21.62162162162174</v>
+        <v>-21.95121951219534</v>
       </c>
       <c r="L89" t="n">
         <v>6.681</v>
@@ -4818,7 +4840,7 @@
         <v>2.809999999999995</v>
       </c>
       <c r="K90" t="n">
-        <v>-16.66666666666673</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L90" t="n">
         <v>6.673</v>
@@ -4869,7 +4891,7 @@
         <v>2.879999999999995</v>
       </c>
       <c r="K91" t="n">
-        <v>-28.94736842105264</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L91" t="n">
         <v>6.646000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>2.919999999999995</v>
       </c>
       <c r="K92" t="n">
-        <v>-32.50000000000001</v>
+        <v>-77.77777777777712</v>
       </c>
       <c r="L92" t="n">
         <v>6.627000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>2.939999999999995</v>
       </c>
       <c r="K93" t="n">
-        <v>-27.50000000000012</v>
+        <v>-62.96296296296274</v>
       </c>
       <c r="L93" t="n">
         <v>6.608000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>2.949999999999995</v>
       </c>
       <c r="K94" t="n">
-        <v>-30.00000000000006</v>
+        <v>-62.96296296296262</v>
       </c>
       <c r="L94" t="n">
         <v>6.590000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>2.959999999999995</v>
       </c>
       <c r="K95" t="n">
-        <v>-30.86419753086425</v>
+        <v>-76.92307692307679</v>
       </c>
       <c r="L95" t="n">
         <v>6.572000000000003</v>
@@ -5124,7 +5146,7 @@
         <v>2.979999999999994</v>
       </c>
       <c r="K96" t="n">
-        <v>-27.71084337349408</v>
+        <v>-52.38095238095254</v>
       </c>
       <c r="L96" t="n">
         <v>6.554000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>3.049999999999994</v>
       </c>
       <c r="K97" t="n">
-        <v>-8.641975308642023</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L97" t="n">
         <v>6.550000000000002</v>
@@ -5226,7 +5248,7 @@
         <v>3.129999999999995</v>
       </c>
       <c r="K98" t="n">
-        <v>-30.00000000000006</v>
+        <v>-27.27272727272723</v>
       </c>
       <c r="L98" t="n">
         <v>6.540000000000004</v>
@@ -5277,7 +5299,7 @@
         <v>3.129999999999995</v>
       </c>
       <c r="K99" t="n">
-        <v>-30.00000000000006</v>
+        <v>-31.25000000000023</v>
       </c>
       <c r="L99" t="n">
         <v>6.531000000000004</v>
@@ -5328,7 +5350,7 @@
         <v>3.129999999999995</v>
       </c>
       <c r="K100" t="n">
-        <v>-24.32432432432443</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L100" t="n">
         <v>6.521000000000005</v>
@@ -5379,7 +5401,7 @@
         <v>3.129999999999995</v>
       </c>
       <c r="K101" t="n">
-        <v>-48.38709677419351</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L101" t="n">
         <v>6.518000000000005</v>
@@ -5430,7 +5452,7 @@
         <v>3.129999999999995</v>
       </c>
       <c r="K102" t="n">
-        <v>-36.00000000000006</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L102" t="n">
         <v>6.519000000000005</v>
@@ -5481,7 +5503,7 @@
         <v>3.189999999999995</v>
       </c>
       <c r="K103" t="n">
-        <v>-25.92592592592578</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L103" t="n">
         <v>6.524000000000005</v>
@@ -5532,7 +5554,7 @@
         <v>3.209999999999995</v>
       </c>
       <c r="K104" t="n">
-        <v>-18.51851851851855</v>
+        <v>35.99999999999994</v>
       </c>
       <c r="L104" t="n">
         <v>6.532000000000005</v>
@@ -5583,7 +5605,7 @@
         <v>3.249999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>-22.80701754385958</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L105" t="n">
         <v>6.537000000000004</v>
@@ -5634,7 +5656,7 @@
         <v>3.339999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>-9.375000000000069</v>
+        <v>17.24137931034477</v>
       </c>
       <c r="L106" t="n">
         <v>6.549000000000005</v>
@@ -5685,7 +5707,7 @@
         <v>3.419999999999995</v>
       </c>
       <c r="K107" t="n">
-        <v>-10.76923076923081</v>
+        <v>17.24137931034477</v>
       </c>
       <c r="L107" t="n">
         <v>6.546000000000005</v>
@@ -5736,7 +5758,7 @@
         <v>3.479999999999995</v>
       </c>
       <c r="K108" t="n">
-        <v>1.449275362318807</v>
+        <v>31.42857142857147</v>
       </c>
       <c r="L108" t="n">
         <v>6.557000000000005</v>
@@ -5787,7 +5809,7 @@
         <v>3.489999999999995</v>
       </c>
       <c r="K109" t="n">
-        <v>4.347826086956555</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>6.569000000000004</v>
@@ -5838,7 +5860,7 @@
         <v>3.629999999999995</v>
       </c>
       <c r="K110" t="n">
-        <v>-14.63414634146344</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L110" t="n">
         <v>6.567000000000003</v>
@@ -5889,7 +5911,7 @@
         <v>3.649999999999995</v>
       </c>
       <c r="K111" t="n">
-        <v>-9.090909090909133</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L111" t="n">
         <v>6.563000000000002</v>
@@ -5940,7 +5962,7 @@
         <v>3.719999999999995</v>
       </c>
       <c r="K112" t="n">
-        <v>5.000000000000006</v>
+        <v>-5.660377358490611</v>
       </c>
       <c r="L112" t="n">
         <v>6.566000000000003</v>
@@ -5991,7 +6013,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K113" t="n">
-        <v>6.172839506172923</v>
+        <v>-3.703703703703618</v>
       </c>
       <c r="L113" t="n">
         <v>6.566000000000003</v>
@@ -6042,7 +6064,7 @@
         <v>3.799999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>1.176470588235267</v>
+        <v>-5.454545454545484</v>
       </c>
       <c r="L114" t="n">
         <v>6.559000000000002</v>
@@ -6093,7 +6115,7 @@
         <v>3.849999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>7.865168539325854</v>
+        <v>-13.72549019607825</v>
       </c>
       <c r="L115" t="n">
         <v>6.561000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>3.919999999999997</v>
       </c>
       <c r="K116" t="n">
-        <v>-2.127659574468033</v>
+        <v>-11.99999999999986</v>
       </c>
       <c r="L116" t="n">
         <v>6.547000000000002</v>
@@ -6195,7 +6217,7 @@
         <v>3.959999999999997</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571423</v>
+        <v>-33.33333333333321</v>
       </c>
       <c r="L117" t="n">
         <v>6.537000000000002</v>
@@ -6246,7 +6268,7 @@
         <v>4.019999999999997</v>
       </c>
       <c r="K118" t="n">
-        <v>-12.35955056179766</v>
+        <v>-43.39622641509408</v>
       </c>
       <c r="L118" t="n">
         <v>6.515000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>4.069999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-17.02127659574464</v>
+        <v>-31.81818181818173</v>
       </c>
       <c r="L119" t="n">
         <v>6.487000000000002</v>
@@ -6348,7 +6370,7 @@
         <v>4.079999999999997</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.8947368421052</v>
+        <v>-30.23255813953469</v>
       </c>
       <c r="L120" t="n">
         <v>6.472000000000003</v>
@@ -6399,7 +6421,7 @@
         <v>4.089999999999997</v>
       </c>
       <c r="K121" t="n">
-        <v>-16.66666666666664</v>
+        <v>-51.35135135135119</v>
       </c>
       <c r="L121" t="n">
         <v>6.460000000000003</v>
@@ -6450,7 +6472,7 @@
         <v>4.099999999999997</v>
       </c>
       <c r="K122" t="n">
-        <v>-17.52577319587624</v>
+        <v>-65.71428571428557</v>
       </c>
       <c r="L122" t="n">
         <v>6.440000000000002</v>
@@ -6501,7 +6523,7 @@
         <v>4.099999999999997</v>
       </c>
       <c r="K123" t="n">
-        <v>-25.27472527472527</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L123" t="n">
         <v>6.417000000000002</v>
@@ -6552,7 +6574,7 @@
         <v>4.099999999999997</v>
       </c>
       <c r="K124" t="n">
-        <v>-28.08988764044936</v>
+        <v>-92.00000000000017</v>
       </c>
       <c r="L124" t="n">
         <v>6.399000000000003</v>
@@ -6603,7 +6625,7 @@
         <v>4.149999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>-28.8888888888888</v>
+        <v>-91.30434782608712</v>
       </c>
       <c r="L125" t="n">
         <v>6.371000000000003</v>
@@ -6654,7 +6676,7 @@
         <v>4.189999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>-45.88235294117631</v>
+        <v>-91.30434782608712</v>
       </c>
       <c r="L126" t="n">
         <v>6.346000000000004</v>
@@ -6705,7 +6727,7 @@
         <v>4.199999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>-38.46153846153834</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L127" t="n">
         <v>6.326000000000004</v>
@@ -6756,7 +6778,7 @@
         <v>4.209999999999996</v>
       </c>
       <c r="K128" t="n">
-        <v>-50.68493150684924</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L128" t="n">
         <v>6.311000000000005</v>
@@ -6807,7 +6829,7 @@
         <v>4.219999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>-50.68493150684924</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L129" t="n">
         <v>6.302000000000005</v>
@@ -6858,7 +6880,7 @@
         <v>4.279999999999997</v>
       </c>
       <c r="K130" t="n">
-        <v>-26.15384615384605</v>
+        <v>-15.78947368421023</v>
       </c>
       <c r="L130" t="n">
         <v>6.300000000000004</v>
@@ -6909,7 +6931,7 @@
         <v>4.339999999999997</v>
       </c>
       <c r="K131" t="n">
-        <v>-30.43478260869555</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>6.291000000000005</v>
@@ -6960,7 +6982,7 @@
         <v>4.339999999999997</v>
       </c>
       <c r="K132" t="n">
-        <v>-45.16129032258055</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>6.283000000000004</v>
@@ -7011,7 +7033,7 @@
         <v>4.359999999999998</v>
       </c>
       <c r="K133" t="n">
-        <v>-47.54098360655722</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L133" t="n">
         <v>6.277000000000004</v>
@@ -7062,7 +7084,7 @@
         <v>4.369999999999998</v>
       </c>
       <c r="K134" t="n">
-        <v>-43.85964912280686</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L134" t="n">
         <v>6.270000000000003</v>
@@ -7113,7 +7135,7 @@
         <v>4.449999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>-36.66666666666669</v>
+        <v>38.46153846153809</v>
       </c>
       <c r="L135" t="n">
         <v>6.276000000000002</v>
@@ -7164,7 +7186,7 @@
         <v>4.449999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>-28.30188679245283</v>
+        <v>35.99999999999969</v>
       </c>
       <c r="L136" t="n">
         <v>6.286000000000003</v>
@@ -7215,7 +7237,7 @@
         <v>4.459999999999998</v>
       </c>
       <c r="K137" t="n">
-        <v>-23.99999999999998</v>
+        <v>35.99999999999969</v>
       </c>
       <c r="L137" t="n">
         <v>6.294000000000003</v>
@@ -7266,7 +7288,7 @@
         <v>4.519999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>46.66666666666647</v>
       </c>
       <c r="L138" t="n">
         <v>6.309000000000003</v>
@@ -7317,7 +7339,7 @@
         <v>4.569999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>20.00000000000007</v>
+        <v>44.82758620689624</v>
       </c>
       <c r="L139" t="n">
         <v>6.328000000000004</v>
@@ -7368,7 +7390,7 @@
         <v>4.669999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>1.694915254237247</v>
+        <v>27.27272727272708</v>
       </c>
       <c r="L140" t="n">
         <v>6.331000000000004</v>
@@ -7419,7 +7441,7 @@
         <v>4.779999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>15.94202898550724</v>
+        <v>45.45454545454527</v>
       </c>
       <c r="L141" t="n">
         <v>6.351000000000004</v>
@@ -7470,7 +7492,7 @@
         <v>4.779999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>17.64705882352937</v>
+        <v>42.85714285714262</v>
       </c>
       <c r="L142" t="n">
         <v>6.371000000000004</v>
@@ -7521,7 +7543,7 @@
         <v>4.789999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>18.84057971014485</v>
+        <v>47.61904761904756</v>
       </c>
       <c r="L143" t="n">
         <v>6.390000000000005</v>
@@ -7572,7 +7594,7 @@
         <v>4.8</v>
       </c>
       <c r="K144" t="n">
-        <v>20</v>
+        <v>37.14285714285722</v>
       </c>
       <c r="L144" t="n">
         <v>6.411000000000006</v>
@@ -7623,7 +7645,7 @@
         <v>4.879999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>36.98630136986284</v>
+        <v>48.8372093023255</v>
       </c>
       <c r="L145" t="n">
         <v>6.432000000000007</v>
@@ -7674,7 +7696,7 @@
         <v>4.999999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>53.08641975308623</v>
+        <v>62.96296296296283</v>
       </c>
       <c r="L146" t="n">
         <v>6.465000000000006</v>
@@ -7725,7 +7747,7 @@
         <v>5.039999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>45.23809523809509</v>
+        <v>46.15384615384598</v>
       </c>
       <c r="L147" t="n">
         <v>6.495000000000006</v>
@@ -7776,7 +7798,7 @@
         <v>5.039999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>46.98795180722873</v>
+        <v>40.42553191489346</v>
       </c>
       <c r="L148" t="n">
         <v>6.519000000000005</v>
@@ -7827,7 +7849,7 @@
         <v>5.149999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>29.0322580645161</v>
+        <v>37.50000000000016</v>
       </c>
       <c r="L149" t="n">
         <v>6.527000000000005</v>
@@ -7878,7 +7900,7 @@
         <v>5.269999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>9.090909090909058</v>
+        <v>-10.20408163265304</v>
       </c>
       <c r="L150" t="n">
         <v>6.533000000000006</v>
@@ -7929,7 +7951,7 @@
         <v>5.319999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>10.2040816326531</v>
+        <v>-18.51851851851848</v>
       </c>
       <c r="L151" t="n">
         <v>6.523000000000006</v>
@@ -7980,7 +8002,7 @@
         <v>5.349999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>12.87128712871285</v>
+        <v>-14.28571428571433</v>
       </c>
       <c r="L152" t="n">
         <v>6.516000000000007</v>
@@ -8031,7 +8053,7 @@
         <v>5.369999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>12.87128712871285</v>
+        <v>-12.28070175438605</v>
       </c>
       <c r="L153" t="n">
         <v>6.510000000000007</v>
@@ -8082,7 +8104,7 @@
         <v>5.409999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>9.615384615384666</v>
+        <v>-35.84905660377353</v>
       </c>
       <c r="L154" t="n">
         <v>6.499000000000007</v>
@@ -8133,7 +8155,7 @@
         <v>5.569999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>16.07142857142862</v>
+        <v>-26.31578947368414</v>
       </c>
       <c r="L155" t="n">
         <v>6.496000000000007</v>
@@ -8184,7 +8206,7 @@
         <v>5.689999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>4.838709677419394</v>
+        <v>-35.38461538461534</v>
       </c>
       <c r="L156" t="n">
         <v>6.469000000000006</v>
@@ -8235,7 +8257,7 @@
         <v>5.709999999999999</v>
       </c>
       <c r="K157" t="n">
-        <v>3.999999999999983</v>
+        <v>-37.3134328358209</v>
       </c>
       <c r="L157" t="n">
         <v>6.444000000000005</v>
@@ -8286,7 +8308,7 @@
         <v>5.749999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.06504065040656</v>
+        <v>-30.00000000000008</v>
       </c>
       <c r="L158" t="n">
         <v>6.415000000000004</v>
@@ -8337,7 +8359,7 @@
         <v>5.759999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-9.243697478991621</v>
+        <v>-14.28571428571434</v>
       </c>
       <c r="L159" t="n">
         <v>6.396000000000005</v>
@@ -8388,7 +8410,7 @@
         <v>5.769999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>-1.81818181818178</v>
+        <v>-6.666666666666719</v>
       </c>
       <c r="L160" t="n">
         <v>6.388000000000005</v>
@@ -8439,7 +8461,7 @@
         <v>5.769999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-13.13131313131313</v>
+        <v>-14.28571428571417</v>
       </c>
       <c r="L161" t="n">
         <v>6.385000000000005</v>
@@ -8490,7 +8512,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-15.68627450980394</v>
+        <v>-25.58139534883725</v>
       </c>
       <c r="L162" t="n">
         <v>6.376000000000005</v>
@@ -8541,7 +8563,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>-16.83168316831683</v>
+        <v>-17.948717948718</v>
       </c>
       <c r="L163" t="n">
         <v>6.365000000000005</v>
@@ -8592,7 +8614,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>-18.00000000000008</v>
+        <v>-100</v>
       </c>
       <c r="L164" t="n">
         <v>6.358000000000005</v>
@@ -8643,7 +8665,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-28.26086956521737</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>6.335000000000005</v>
@@ -8694,7 +8716,7 @@
         <v>5.799999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>-47.5</v>
+        <v>-100</v>
       </c>
       <c r="L166" t="n">
         <v>6.324000000000005</v>
@@ -8745,7 +8767,7 @@
         <v>5.819999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>-46.15384615384612</v>
+        <v>-100</v>
       </c>
       <c r="L167" t="n">
         <v>6.313000000000005</v>
@@ -8796,7 +8818,7 @@
         <v>5.819999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>-46.15384615384612</v>
+        <v>-100</v>
       </c>
       <c r="L168" t="n">
         <v>6.306000000000005</v>
@@ -8847,7 +8869,7 @@
         <v>5.829999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>-38.23529411764712</v>
+        <v>-100</v>
       </c>
       <c r="L169" t="n">
         <v>6.299000000000005</v>
@@ -8898,7 +8920,7 @@
         <v>5.829999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>-25.00000000000008</v>
+        <v>-100</v>
       </c>
       <c r="L170" t="n">
         <v>6.293000000000005</v>
@@ -8949,7 +8971,7 @@
         <v>5.89</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.263157894736875</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L171" t="n">
         <v>6.293000000000005</v>
@@ -9000,7 +9022,7 @@
         <v>5.89</v>
       </c>
       <c r="K172" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>6.296000000000005</v>
@@ -9051,7 +9073,7 @@
         <v>5.89</v>
       </c>
       <c r="K173" t="n">
-        <v>-15.38461538461536</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>6.299000000000005</v>
@@ -9102,7 +9124,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>-6.122448979591874</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L174" t="n">
         <v>6.303000000000006</v>
@@ -9153,7 +9175,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>-57.57575757575752</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L175" t="n">
         <v>6.307000000000007</v>
@@ -9204,7 +9226,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>-33.33333333333333</v>
+        <v>74.99999999999861</v>
       </c>
       <c r="L176" t="n">
         <v>6.311000000000007</v>
@@ -9255,7 +9277,7 @@
         <v>6</v>
       </c>
       <c r="K177" t="n">
-        <v>17.24137931034502</v>
+        <v>88.88888888888823</v>
       </c>
       <c r="L177" t="n">
         <v>6.327000000000007</v>
@@ -9306,7 +9328,7 @@
         <v>6.090000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>30.76923076923061</v>
       </c>
       <c r="L178" t="n">
         <v>6.334000000000006</v>
@@ -9357,7 +9379,7 @@
         <v>6.100000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>5.882352941176562</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>6.343000000000006</v>
@@ -9408,7 +9430,7 @@
         <v>6.180000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>26.82926829268282</v>
+        <v>37.9310344827585</v>
       </c>
       <c r="L180" t="n">
         <v>6.360000000000007</v>
@@ -9459,7 +9481,7 @@
         <v>6.220000000000002</v>
       </c>
       <c r="K181" t="n">
-        <v>33.3333333333332</v>
+        <v>45.45454545454531</v>
       </c>
       <c r="L181" t="n">
         <v>6.375000000000007</v>
@@ -9510,7 +9532,7 @@
         <v>6.320000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>15.38461538461531</v>
+        <v>11.62790697674408</v>
       </c>
       <c r="L182" t="n">
         <v>6.380000000000007</v>
@@ -9561,7 +9583,7 @@
         <v>6.470000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>34.32835820895511</v>
+        <v>33.33333333333323</v>
       </c>
       <c r="L183" t="n">
         <v>6.400000000000007</v>
@@ -9612,7 +9634,7 @@
         <v>6.620000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>9.756097560975572</v>
+        <v>5.555555555555535</v>
       </c>
       <c r="L184" t="n">
         <v>6.404000000000006</v>
@@ -9663,7 +9685,7 @@
         <v>6.690000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>1.123595505617948</v>
+        <v>-3.797468354430394</v>
       </c>
       <c r="L185" t="n">
         <v>6.401000000000006</v>
@@ -9714,7 +9736,7 @@
         <v>6.700000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L186" t="n">
         <v>6.397000000000006</v>
@@ -9765,7 +9787,7 @@
         <v>6.760000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>8.510638297872305</v>
+        <v>1.492537313432931</v>
       </c>
       <c r="L187" t="n">
         <v>6.389000000000006</v>
@@ -9816,7 +9838,7 @@
         <v>6.770000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>9.473684210526255</v>
+        <v>1.4925373134328</v>
       </c>
       <c r="L188" t="n">
         <v>6.391000000000006</v>
@@ -9867,7 +9889,7 @@
         <v>6.840000000000003</v>
       </c>
       <c r="K189" t="n">
-        <v>2.970297029702983</v>
+        <v>-21.21212121212124</v>
       </c>
       <c r="L189" t="n">
         <v>6.385000000000007</v>
@@ -9918,7 +9940,7 @@
         <v>6.880000000000003</v>
       </c>
       <c r="K190" t="n">
-        <v>6.666666666666667</v>
+        <v>-21.21212121212124</v>
       </c>
       <c r="L190" t="n">
         <v>6.375000000000007</v>
@@ -9969,7 +9991,7 @@
         <v>6.960000000000004</v>
       </c>
       <c r="K191" t="n">
-        <v>8.411214953270985</v>
+        <v>6.249999999999992</v>
       </c>
       <c r="L191" t="n">
         <v>6.369000000000007</v>
@@ -10020,7 +10042,7 @@
         <v>7.040000000000004</v>
       </c>
       <c r="K192" t="n">
-        <v>0.8695652173912829</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>6.365000000000007</v>
@@ -10071,7 +10093,7 @@
         <v>7.050000000000003</v>
       </c>
       <c r="K193" t="n">
-        <v>1.72413793103444</v>
+        <v>-6.97674418604656</v>
       </c>
       <c r="L193" t="n">
         <v>6.347000000000007</v>
@@ -10122,7 +10144,7 @@
         <v>7.070000000000003</v>
       </c>
       <c r="K194" t="n">
-        <v>-0.854700854700834</v>
+        <v>5.263157894736965</v>
       </c>
       <c r="L194" t="n">
         <v>6.342000000000007</v>
@@ -10173,7 +10195,7 @@
         <v>7.110000000000003</v>
       </c>
       <c r="K195" t="n">
-        <v>2.47933884297522</v>
+        <v>17.07317073170738</v>
       </c>
       <c r="L195" t="n">
         <v>6.348000000000006</v>
@@ -10224,7 +10246,7 @@
         <v>7.160000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>6.349206349206337</v>
+        <v>14.99999999999992</v>
       </c>
       <c r="L196" t="n">
         <v>6.360000000000007</v>
@@ -10275,7 +10297,7 @@
         <v>7.210000000000003</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.78512396694216</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>6.361000000000007</v>
@@ -10326,7 +10348,7 @@
         <v>7.210000000000003</v>
       </c>
       <c r="K198" t="n">
-        <v>1.785714285714324</v>
+        <v>18.91891891891904</v>
       </c>
       <c r="L198" t="n">
         <v>6.361000000000008</v>
@@ -10377,7 +10399,7 @@
         <v>7.230000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>2.65486725663711</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L199" t="n">
         <v>6.370000000000007</v>
@@ -10428,7 +10450,7 @@
         <v>7.260000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>-1.851851851851893</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>6.378000000000007</v>
@@ -10479,7 +10501,7 @@
         <v>7.260000000000002</v>
       </c>
       <c r="K201" t="n">
-        <v>-5.769230769230812</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L201" t="n">
         <v>6.378000000000007</v>
@@ -10530,7 +10552,7 @@
         <v>7.260000000000002</v>
       </c>
       <c r="K202" t="n">
-        <v>4.255319148936172</v>
+        <v>33.33333333333361</v>
       </c>
       <c r="L202" t="n">
         <v>6.386000000000007</v>
@@ -10581,7 +10603,7 @@
         <v>7.330000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>-4.651162790697677</v>
+        <v>61.53846153846164</v>
       </c>
       <c r="L203" t="n">
         <v>6.400000000000007</v>
@@ -10632,7 +10654,7 @@
         <v>7.350000000000002</v>
       </c>
       <c r="K204" t="n">
-        <v>17.80821917808219</v>
+        <v>58.33333333333336</v>
       </c>
       <c r="L204" t="n">
         <v>6.418000000000008</v>
@@ -10683,7 +10705,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K205" t="n">
-        <v>21.12676056338036</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L205" t="n">
         <v>6.427000000000007</v>
@@ -10738,7 +10760,7 @@
         <v>7.470000000000002</v>
       </c>
       <c r="K206" t="n">
-        <v>11.68831168831168</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L206" t="n">
         <v>6.424000000000007</v>
@@ -10797,7 +10819,7 @@
         <v>7.550000000000002</v>
       </c>
       <c r="K207" t="n">
-        <v>13.92405063291134</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L207" t="n">
         <v>6.434000000000006</v>
@@ -10856,7 +10878,7 @@
         <v>7.550000000000002</v>
       </c>
       <c r="K208" t="n">
-        <v>12.82051282051279</v>
+        <v>25</v>
       </c>
       <c r="L208" t="n">
         <v>6.444000000000005</v>
@@ -10915,7 +10937,7 @@
         <v>7.550000000000002</v>
       </c>
       <c r="K209" t="n">
-        <v>23.94366197183101</v>
+        <v>17.24137931034477</v>
       </c>
       <c r="L209" t="n">
         <v>6.452000000000005</v>
@@ -10974,7 +10996,7 @@
         <v>7.640000000000002</v>
       </c>
       <c r="K210" t="n">
-        <v>5.263157894736854</v>
+        <v>-10.5263157894737</v>
       </c>
       <c r="L210" t="n">
         <v>6.448000000000005</v>
@@ -11033,7 +11055,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="K211" t="n">
-        <v>2.702702702702768</v>
+        <v>4.545454545454646</v>
       </c>
       <c r="L211" t="n">
         <v>6.450000000000005</v>
@@ -11088,7 +11110,7 @@
         <v>7.720000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>17.64705882352946</v>
+        <v>-7.692307692307762</v>
       </c>
       <c r="L212" t="n">
         <v>6.454000000000003</v>
@@ -11145,7 +11167,7 @@
         <v>7.740000000000002</v>
       </c>
       <c r="K213" t="n">
-        <v>13.0434782608697</v>
+        <v>-17.94871794871781</v>
       </c>
       <c r="L213" t="n">
         <v>6.449000000000003</v>
@@ -11202,7 +11224,7 @@
         <v>7.760000000000002</v>
       </c>
       <c r="K214" t="n">
-        <v>18.84057971014495</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>6.444000000000003</v>
@@ -11259,7 +11281,7 @@
         <v>7.830000000000002</v>
       </c>
       <c r="K215" t="n">
-        <v>2.777777777777723</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>6.437000000000003</v>
@@ -11316,7 +11338,7 @@
         <v>7.830000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>-4.477611940298551</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L216" t="n">
         <v>6.437000000000003</v>
@@ -11373,7 +11395,7 @@
         <v>7.840000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>1.587301587301556</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L217" t="n">
         <v>6.428000000000003</v>
@@ -11430,7 +11452,7 @@
         <v>7.860000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-1.538461538461509</v>
+        <v>-35.4838709677419</v>
       </c>
       <c r="L218" t="n">
         <v>6.417000000000003</v>
@@ -11487,7 +11509,7 @@
         <v>7.870000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>-6.250000000000008</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L219" t="n">
         <v>6.405000000000003</v>
@@ -11544,7 +11566,7 @@
         <v>7.870000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>-11.47540983606563</v>
+        <v>-52.94117647058897</v>
       </c>
       <c r="L220" t="n">
         <v>6.402000000000003</v>
@@ -11601,7 +11623,7 @@
         <v>7.870000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.47540983606563</v>
+        <v>-73.33333333333381</v>
       </c>
       <c r="L221" t="n">
         <v>6.393000000000002</v>
@@ -11658,7 +11680,7 @@
         <v>7.870000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>-11.47540983606563</v>
+        <v>-69.23076923076987</v>
       </c>
       <c r="L222" t="n">
         <v>6.382000000000001</v>
@@ -11715,7 +11737,7 @@
         <v>7.870000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>-25.92592592592607</v>
+        <v>-100</v>
       </c>
       <c r="L223" t="n">
         <v>6.373000000000002</v>
@@ -11772,7 +11794,7 @@
         <v>7.880000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>-32.07547169811323</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>6.361000000000002</v>
@@ -11829,7 +11851,7 @@
         <v>7.880000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>-25.00000000000004</v>
+        <v>-100</v>
       </c>
       <c r="L225" t="n">
         <v>6.356000000000002</v>
@@ -11886,7 +11908,7 @@
         <v>7.960000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>6.122448979591896</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>6.359000000000002</v>
@@ -11943,7 +11965,7 @@
         <v>8.000000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>-2.222222222222178</v>
+        <v>71.42857142857089</v>
       </c>
       <c r="L227" t="n">
         <v>6.367000000000001</v>
@@ -12000,7 +12022,7 @@
         <v>8.020000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-6.382978723404134</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L228" t="n">
         <v>6.375000000000002</v>
@@ -12057,7 +12079,7 @@
         <v>8.080000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>5.66037735849062</v>
+        <v>71.4285714285716</v>
       </c>
       <c r="L229" t="n">
         <v>6.390000000000001</v>
@@ -12114,7 +12136,7 @@
         <v>8.090000000000002</v>
       </c>
       <c r="K230" t="n">
-        <v>24.44444444444455</v>
+        <v>63.63636363636397</v>
       </c>
       <c r="L230" t="n">
         <v>6.404000000000002</v>
@@ -12165,7 +12187,7 @@
         <v>8.110000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>17.07317073170724</v>
+        <v>66.66666666666691</v>
       </c>
       <c r="L231" t="n">
         <v>6.420000000000003</v>
@@ -12216,7 +12238,7 @@
         <v>8.260000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>-18.51851851851848</v>
+        <v>2.564102564102739</v>
       </c>
       <c r="L232" t="n">
         <v>6.421000000000004</v>
@@ -12267,7 +12289,7 @@
         <v>8.350000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>1.639344262295048</v>
+        <v>23.40425531914902</v>
       </c>
       <c r="L233" t="n">
         <v>6.431000000000004</v>
@@ -12318,7 +12340,7 @@
         <v>8.360000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>-3.333333333333265</v>
+        <v>20.83333333333346</v>
       </c>
       <c r="L234" t="n">
         <v>6.441000000000004</v>
@@ -12369,7 +12391,7 @@
         <v>8.400000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>15.78947368421065</v>
+        <v>13.63636363636374</v>
       </c>
       <c r="L235" t="n">
         <v>6.455000000000004</v>
@@ -12420,7 +12442,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K236" t="n">
-        <v>4.761904761904796</v>
+        <v>-8.695652173913034</v>
       </c>
       <c r="L236" t="n">
         <v>6.455000000000004</v>
@@ -12471,7 +12493,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>6.451612903225802</v>
+        <v>-4.545454545454637</v>
       </c>
       <c r="L237" t="n">
         <v>6.451000000000005</v>
@@ -12522,7 +12544,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>9.999999999999911</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L238" t="n">
         <v>6.449000000000005</v>
@@ -12573,7 +12595,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>11.86440677966105</v>
+        <v>-18.91891891891894</v>
       </c>
       <c r="L239" t="n">
         <v>6.441000000000005</v>
@@ -12624,7 +12646,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>11.86440677966105</v>
+        <v>-25.71428571428557</v>
       </c>
       <c r="L240" t="n">
         <v>6.434000000000006</v>
@@ -12675,7 +12697,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>11.86440677966105</v>
+        <v>29.99999999999964</v>
       </c>
       <c r="L241" t="n">
         <v>6.425000000000006</v>
@@ -12726,7 +12748,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>11.86440677966105</v>
+        <v>-27.2727272727272</v>
       </c>
       <c r="L242" t="n">
         <v>6.431000000000006</v>
@@ -12777,7 +12799,7 @@
         <v>8.460000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>11.86440677966105</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L243" t="n">
         <v>6.428000000000006</v>
@@ -12828,7 +12850,7 @@
         <v>8.480000000000004</v>
       </c>
       <c r="K244" t="n">
-        <v>16.66666666666669</v>
+        <v>-49.99999999999889</v>
       </c>
       <c r="L244" t="n">
         <v>6.428000000000006</v>
@@ -12879,7 +12901,7 @@
         <v>8.490000000000006</v>
       </c>
       <c r="K245" t="n">
-        <v>14.75409836065562</v>
+        <v>33.33333333332939</v>
       </c>
       <c r="L245" t="n">
         <v>6.423000000000006</v>
@@ -12930,7 +12952,7 @@
         <v>8.490000000000006</v>
       </c>
       <c r="K246" t="n">
-        <v>1.886792452830135</v>
+        <v>33.33333333332939</v>
       </c>
       <c r="L246" t="n">
         <v>6.424000000000005</v>
@@ -12981,7 +13003,7 @@
         <v>8.490000000000006</v>
       </c>
       <c r="K247" t="n">
-        <v>-6.122448979591841</v>
+        <v>33.33333333332939</v>
       </c>
       <c r="L247" t="n">
         <v>6.425000000000004</v>
@@ -13032,7 +13054,7 @@
         <v>8.490000000000006</v>
       </c>
       <c r="K248" t="n">
-        <v>-2.127659574468209</v>
+        <v>33.33333333332939</v>
       </c>
       <c r="L248" t="n">
         <v>6.426000000000004</v>
@@ -13083,7 +13105,7 @@
         <v>8.550000000000004</v>
       </c>
       <c r="K249" t="n">
-        <v>-27.65957446808494</v>
+        <v>-55.55555555555435</v>
       </c>
       <c r="L249" t="n">
         <v>6.421000000000004</v>
@@ -13134,7 +13156,7 @@
         <v>8.590000000000003</v>
       </c>
       <c r="K250" t="n">
-        <v>-31.99999999999992</v>
+        <v>-69.2307692307687</v>
       </c>
       <c r="L250" t="n">
         <v>6.412000000000003</v>
@@ -13185,7 +13207,7 @@
         <v>8.590000000000003</v>
       </c>
       <c r="K251" t="n">
-        <v>-37.49999999999977</v>
+        <v>-69.2307692307687</v>
       </c>
       <c r="L251" t="n">
         <v>6.403000000000003</v>
@@ -13236,7 +13258,7 @@
         <v>8.600000000000003</v>
       </c>
       <c r="K252" t="n">
-        <v>-11.7647058823529</v>
+        <v>-71.42857142857089</v>
       </c>
       <c r="L252" t="n">
         <v>6.393000000000002</v>
@@ -13287,7 +13309,7 @@
         <v>8.610000000000003</v>
       </c>
       <c r="K253" t="n">
-        <v>-46.15384615384592</v>
+        <v>-84.61538461538551</v>
       </c>
       <c r="L253" t="n">
         <v>6.384000000000002</v>
@@ -13338,7 +13360,7 @@
         <v>8.610000000000003</v>
       </c>
       <c r="K254" t="n">
-        <v>-43.99999999999982</v>
+        <v>-83.33333333333482</v>
       </c>
       <c r="L254" t="n">
         <v>6.373000000000002</v>
@@ -13389,7 +13411,7 @@
         <v>8.660000000000004</v>
       </c>
       <c r="K255" t="n">
-        <v>-38.46153846153844</v>
+        <v>-29.41176470588257</v>
       </c>
       <c r="L255" t="n">
         <v>6.368000000000001</v>
@@ -13440,7 +13462,7 @@
         <v>8.660000000000004</v>
       </c>
       <c r="K256" t="n">
-        <v>-19.99999999999991</v>
+        <v>-29.41176470588257</v>
       </c>
       <c r="L256" t="n">
         <v>6.363000000000001</v>
@@ -13491,7 +13513,7 @@
         <v>8.660000000000004</v>
       </c>
       <c r="K257" t="n">
-        <v>-19.99999999999991</v>
+        <v>-29.41176470588257</v>
       </c>
       <c r="L257" t="n">
         <v>6.358000000000002</v>
@@ -13542,7 +13564,7 @@
         <v>8.740000000000004</v>
       </c>
       <c r="K258" t="n">
-        <v>-42.85714285714272</v>
+        <v>-36.84210526315815</v>
       </c>
       <c r="L258" t="n">
         <v>6.345000000000002</v>
@@ -13593,7 +13615,7 @@
         <v>8.820000000000004</v>
       </c>
       <c r="K259" t="n">
-        <v>-11.11111111111108</v>
+        <v>21.73913043478249</v>
       </c>
       <c r="L259" t="n">
         <v>6.346000000000003</v>
@@ -13644,7 +13666,7 @@
         <v>8.850000000000005</v>
       </c>
       <c r="K260" t="n">
-        <v>-17.94871794871791</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L260" t="n">
         <v>6.348000000000003</v>
@@ -13695,7 +13717,7 @@
         <v>8.900000000000006</v>
       </c>
       <c r="K261" t="n">
-        <v>-27.27272727272711</v>
+        <v>-6.666666666666766</v>
       </c>
       <c r="L261" t="n">
         <v>6.345000000000003</v>
@@ -13746,7 +13768,7 @@
         <v>8.920000000000005</v>
       </c>
       <c r="K262" t="n">
-        <v>-30.43478260869541</v>
+        <v>-16.12903225806434</v>
       </c>
       <c r="L262" t="n">
         <v>6.341000000000003</v>
@@ -13797,7 +13819,7 @@
         <v>8.930000000000005</v>
       </c>
       <c r="K263" t="n">
-        <v>-27.65957446808494</v>
+        <v>-12.49999999999993</v>
       </c>
       <c r="L263" t="n">
         <v>6.337000000000003</v>
@@ -13848,7 +13870,7 @@
         <v>8.930000000000005</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333312</v>
       </c>
       <c r="L264" t="n">
         <v>6.333000000000004</v>
@@ -13899,7 +13921,7 @@
         <v>9.010000000000005</v>
       </c>
       <c r="K265" t="n">
-        <v>-11.53846153846147</v>
+        <v>-2.857142857142784</v>
       </c>
       <c r="L265" t="n">
         <v>6.332000000000004</v>
@@ -13950,7 +13972,7 @@
         <v>9.090000000000005</v>
       </c>
       <c r="K266" t="n">
-        <v>-23.33333333333329</v>
+        <v>-20.93023255813943</v>
       </c>
       <c r="L266" t="n">
         <v>6.323000000000004</v>
@@ -14001,7 +14023,7 @@
         <v>9.140000000000004</v>
       </c>
       <c r="K267" t="n">
-        <v>-13.84615384615386</v>
+        <v>10</v>
       </c>
       <c r="L267" t="n">
         <v>6.319000000000004</v>
@@ -14052,7 +14074,7 @@
         <v>9.180000000000003</v>
       </c>
       <c r="K268" t="n">
-        <v>-7.2463768115942</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>6.327000000000004</v>
@@ -14103,7 +14125,7 @@
         <v>9.310000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>-15.78947368421058</v>
+        <v>-21.73913043478266</v>
       </c>
       <c r="L269" t="n">
         <v>6.314000000000004</v>
@@ -14154,7 +14176,7 @@
         <v>9.410000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>2.439024390243855</v>
+        <v>9.803921568627489</v>
       </c>
       <c r="L270" t="n">
         <v>6.314000000000004</v>
@@ -14205,7 +14227,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>-7.692307692307737</v>
+        <v>-3.448275862069066</v>
       </c>
       <c r="L271" t="n">
         <v>6.310000000000004</v>
@@ -14256,7 +14278,7 @@
         <v>9.510000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>-7.692307692307737</v>
+        <v>-6.896551724137979</v>
       </c>
       <c r="L272" t="n">
         <v>6.307000000000004</v>
@@ -14307,7 +14329,7 @@
         <v>9.520000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>-7.692307692307737</v>
+        <v>-5.084745762711938</v>
       </c>
       <c r="L273" t="n">
         <v>6.304000000000004</v>
@@ -14358,7 +14380,7 @@
         <v>9.520000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>-7.692307692307737</v>
+        <v>-21.56862745098061</v>
       </c>
       <c r="L274" t="n">
         <v>6.301000000000004</v>
@@ -14409,7 +14431,7 @@
         <v>9.530000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>-14.94252873563222</v>
+        <v>-9.090909090909182</v>
       </c>
       <c r="L275" t="n">
         <v>6.289000000000005</v>
@@ -14460,7 +14482,7 @@
         <v>9.540000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>-13.63636363636369</v>
+        <v>-20.00000000000018</v>
       </c>
       <c r="L276" t="n">
         <v>6.286000000000005</v>
@@ -14511,7 +14533,7 @@
         <v>9.610000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>-5.263157894736837</v>
+        <v>-11.6279069767442</v>
       </c>
       <c r="L277" t="n">
         <v>6.285000000000005</v>
@@ -14562,7 +14584,7 @@
         <v>9.680000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>-4.255319148936184</v>
+        <v>2.702702702702651</v>
       </c>
       <c r="L278" t="n">
         <v>6.273000000000005</v>
@@ -14613,7 +14635,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>-10.11235955056182</v>
+        <v>-19.99999999999994</v>
       </c>
       <c r="L279" t="n">
         <v>6.277000000000005</v>
@@ -14664,7 +14686,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-6.976744186046499</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L280" t="n">
         <v>6.271000000000006</v>
@@ -14715,7 +14737,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-2.439024390243866</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L281" t="n">
         <v>6.273000000000005</v>
@@ -14766,7 +14788,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="K282" t="n">
-        <v>8.045977011494241</v>
+        <v>33.33333333333356</v>
       </c>
       <c r="L282" t="n">
         <v>6.283000000000006</v>
@@ -14817,7 +14839,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K283" t="n">
-        <v>8.045977011494326</v>
+        <v>35.71428571428599</v>
       </c>
       <c r="L283" t="n">
         <v>6.293000000000005</v>
@@ -14868,7 +14890,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="K284" t="n">
-        <v>8.045977011494326</v>
+        <v>40.74074074074092</v>
       </c>
       <c r="L284" t="n">
         <v>6.303000000000006</v>
@@ -14919,7 +14941,7 @@
         <v>9.860000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>-8.235294117647129</v>
+        <v>12.5</v>
       </c>
       <c r="L285" t="n">
         <v>6.308000000000007</v>
@@ -14970,7 +14992,7 @@
         <v>9.880000000000003</v>
       </c>
       <c r="K286" t="n">
-        <v>3.797468354430424</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L286" t="n">
         <v>6.314000000000006</v>
@@ -15021,7 +15043,7 @@
         <v>9.950000000000003</v>
       </c>
       <c r="K287" t="n">
-        <v>-11.11111111111111</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L287" t="n">
         <v>6.306000000000007</v>
@@ -15072,7 +15094,7 @@
         <v>10.01</v>
       </c>
       <c r="K288" t="n">
-        <v>-8.433734939759088</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L288" t="n">
         <v>6.311000000000008</v>
@@ -15123,7 +15145,7 @@
         <v>10.01</v>
       </c>
       <c r="K289" t="n">
-        <v>8.571428571428525</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L289" t="n">
         <v>6.313000000000008</v>
@@ -15174,7 +15196,7 @@
         <v>10.02</v>
       </c>
       <c r="K290" t="n">
-        <v>-4.918032786885131</v>
+        <v>13.33333333333324</v>
       </c>
       <c r="L290" t="n">
         <v>6.316000000000008</v>
@@ -15225,7 +15247,7 @@
         <v>10.07</v>
       </c>
       <c r="K291" t="n">
-        <v>1.754385964912237</v>
+        <v>-28.57142857142812</v>
       </c>
       <c r="L291" t="n">
         <v>6.315000000000007</v>
@@ -15276,7 +15298,7 @@
         <v>10.07</v>
       </c>
       <c r="K292" t="n">
-        <v>3.571428571428481</v>
+        <v>-33.33333333333323</v>
       </c>
       <c r="L292" t="n">
         <v>6.307000000000007</v>
@@ -15327,7 +15349,7 @@
         <v>10.07</v>
       </c>
       <c r="K293" t="n">
-        <v>1.818181818181771</v>
+        <v>-33.33333333333323</v>
       </c>
       <c r="L293" t="n">
         <v>6.298000000000007</v>
@@ -15378,7 +15400,7 @@
         <v>10.07</v>
       </c>
       <c r="K294" t="n">
-        <v>1.818181818181771</v>
+        <v>-14.28571428571423</v>
       </c>
       <c r="L294" t="n">
         <v>6.289000000000007</v>
@@ -15429,7 +15451,7 @@
         <v>10.07</v>
       </c>
       <c r="K295" t="n">
-        <v>3.703703703703606</v>
+        <v>-26.31578947368441</v>
       </c>
       <c r="L295" t="n">
         <v>6.286000000000007</v>
@@ -15480,7 +15502,7 @@
         <v>10.07</v>
       </c>
       <c r="K296" t="n">
-        <v>1.886792452830138</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L296" t="n">
         <v>6.281000000000007</v>
@@ -15531,7 +15553,7 @@
         <v>10.07</v>
       </c>
       <c r="K297" t="n">
-        <v>-13.0434782608696</v>
+        <v>-66.6666666666642</v>
       </c>
       <c r="L297" t="n">
         <v>6.283000000000007</v>
@@ -15582,7 +15604,7 @@
         <v>10.07</v>
       </c>
       <c r="K298" t="n">
-        <v>2.564102564102494</v>
+        <v>-66.6666666666642</v>
       </c>
       <c r="L298" t="n">
         <v>6.279000000000006</v>
@@ -15633,7 +15655,7 @@
         <v>10.07</v>
       </c>
       <c r="K299" t="n">
-        <v>-5.555555555555638</v>
+        <v>-100</v>
       </c>
       <c r="L299" t="n">
         <v>6.275000000000006</v>
@@ -15684,7 +15706,7 @@
         <v>10.12</v>
       </c>
       <c r="K300" t="n">
-        <v>7.317073170731703</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>6.275000000000005</v>
@@ -15735,7 +15757,7 @@
         <v>10.17000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>-2.222222222222349</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>6.275000000000006</v>
@@ -15786,7 +15808,7 @@
         <v>10.17000000000001</v>
       </c>
       <c r="K302" t="n">
-        <v>-21.05263157894705</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>6.275000000000006</v>
@@ -15837,7 +15859,7 @@
         <v>10.17000000000001</v>
       </c>
       <c r="K303" t="n">
-        <v>-24.32432432432423</v>
+        <v>0</v>
       </c>
       <c r="L303" t="n">
         <v>6.275000000000006</v>
@@ -15888,7 +15910,7 @@
         <v>10.18000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>-21.05263157894705</v>
+        <v>9.090909090909458</v>
       </c>
       <c r="L304" t="n">
         <v>6.276000000000006</v>
@@ -15939,7 +15961,7 @@
         <v>10.18000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>-6.249999999999758</v>
+        <v>9.090909090909458</v>
       </c>
       <c r="L305" t="n">
         <v>6.277000000000006</v>
@@ -15990,7 +16012,7 @@
         <v>10.22000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L306" t="n">
         <v>6.282000000000006</v>
@@ -16041,7 +16063,7 @@
         <v>10.23000000000001</v>
       </c>
       <c r="K307" t="n">
-        <v>28.5714285714283</v>
+        <v>37.49999999999986</v>
       </c>
       <c r="L307" t="n">
         <v>6.288000000000006</v>
@@ -16092,7 +16114,7 @@
         <v>10.23000000000001</v>
       </c>
       <c r="K308" t="n">
-        <v>9.090909090909127</v>
+        <v>37.49999999999986</v>
       </c>
       <c r="L308" t="n">
         <v>6.294000000000007</v>
@@ -16143,7 +16165,7 @@
         <v>10.23000000000001</v>
       </c>
       <c r="K309" t="n">
-        <v>9.090909090909127</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L309" t="n">
         <v>6.300000000000007</v>
@@ -16194,7 +16216,7 @@
         <v>10.28</v>
       </c>
       <c r="K310" t="n">
-        <v>-15.38461538461531</v>
+        <v>9.090909090909753</v>
       </c>
       <c r="L310" t="n">
         <v>6.296000000000007</v>
@@ -16245,7 +16267,7 @@
         <v>10.3</v>
       </c>
       <c r="K311" t="n">
-        <v>13.04347826086965</v>
+        <v>23.07692307692345</v>
       </c>
       <c r="L311" t="n">
         <v>6.299000000000008</v>
@@ -16296,7 +16318,7 @@
         <v>10.33000000000001</v>
       </c>
       <c r="K312" t="n">
-        <v>23.07692307692313</v>
+        <v>37.50000000000028</v>
       </c>
       <c r="L312" t="n">
         <v>6.305000000000009</v>
@@ -16347,7 +16369,7 @@
         <v>10.35</v>
       </c>
       <c r="K313" t="n">
-        <v>28.57142857142848</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L313" t="n">
         <v>6.313000000000008</v>
@@ -16398,7 +16420,7 @@
         <v>10.35</v>
       </c>
       <c r="K314" t="n">
-        <v>28.57142857142848</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L314" t="n">
         <v>6.320000000000007</v>
@@ -16449,7 +16471,7 @@
         <v>10.36</v>
       </c>
       <c r="K315" t="n">
-        <v>24.13793103448278</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L315" t="n">
         <v>6.326000000000008</v>
@@ -16500,7 +16522,7 @@
         <v>10.38</v>
       </c>
       <c r="K316" t="n">
-        <v>16.12903225806472</v>
+        <v>-6.666666666666588</v>
       </c>
       <c r="L316" t="n">
         <v>6.326000000000007</v>
@@ -16551,7 +16573,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K317" t="n">
-        <v>9.090909090909115</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="L317" t="n">
         <v>6.323000000000008</v>
@@ -16602,7 +16624,7 @@
         <v>10.41000000000001</v>
       </c>
       <c r="K318" t="n">
-        <v>5.882352941176578</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L318" t="n">
         <v>6.319000000000008</v>
@@ -16653,7 +16675,7 @@
         <v>10.45000000000001</v>
       </c>
       <c r="K319" t="n">
-        <v>-5.263157894736695</v>
+        <v>-17.64705882352938</v>
       </c>
       <c r="L319" t="n">
         <v>6.311000000000009</v>
@@ -16704,7 +16726,7 @@
         <v>10.46000000000001</v>
       </c>
       <c r="K320" t="n">
-        <v>-17.64705882352947</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L320" t="n">
         <v>6.309000000000009</v>
@@ -16755,7 +16777,7 @@
         <v>10.47000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>-6.666666666666508</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L321" t="n">
         <v>6.304000000000009</v>
@@ -16806,7 +16828,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>-17.64705882352931</v>
+        <v>-87.49999999999972</v>
       </c>
       <c r="L322" t="n">
         <v>6.292000000000009</v>
@@ -16857,7 +16879,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>-17.64705882352931</v>
+        <v>-87.49999999999972</v>
       </c>
       <c r="L323" t="n">
         <v>6.278000000000008</v>
@@ -16908,7 +16930,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K324" t="n">
-        <v>-21.21212121212141</v>
+        <v>-86.66666666666639</v>
       </c>
       <c r="L324" t="n">
         <v>6.264000000000008</v>
@@ -16959,7 +16981,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>-21.21212121212141</v>
+        <v>-84.61538461538434</v>
       </c>
       <c r="L325" t="n">
         <v>6.251000000000007</v>
@@ -17010,7 +17032,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>-37.93103448275884</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L326" t="n">
         <v>6.240000000000007</v>
@@ -17061,7 +17083,7 @@
         <v>10.52</v>
       </c>
       <c r="K327" t="n">
-        <v>-44.82758620689665</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L327" t="n">
         <v>6.230000000000007</v>
@@ -17112,7 +17134,7 @@
         <v>10.59</v>
       </c>
       <c r="K328" t="n">
-        <v>-16.66666666666691</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L328" t="n">
         <v>6.228000000000007</v>
@@ -17163,7 +17185,7 @@
         <v>10.61</v>
       </c>
       <c r="K329" t="n">
-        <v>-10.52631578947377</v>
+        <v>20.00000000000059</v>
       </c>
       <c r="L329" t="n">
         <v>6.232000000000006</v>
@@ -17214,7 +17236,7 @@
         <v>10.61</v>
       </c>
       <c r="K330" t="n">
-        <v>3.030303030302981</v>
+        <v>28.57142857142921</v>
       </c>
       <c r="L330" t="n">
         <v>6.235000000000007</v>
@@ -17265,7 +17287,7 @@
         <v>10.61</v>
       </c>
       <c r="K331" t="n">
-        <v>-3.225806451612848</v>
+        <v>80.00000000000178</v>
       </c>
       <c r="L331" t="n">
         <v>6.239000000000007</v>
@@ -17316,7 +17338,7 @@
         <v>10.61</v>
       </c>
       <c r="K332" t="n">
-        <v>-14.28571428571442</v>
+        <v>80.00000000000178</v>
       </c>
       <c r="L332" t="n">
         <v>6.247000000000008</v>
@@ -17367,7 +17389,7 @@
         <v>10.68</v>
       </c>
       <c r="K333" t="n">
-        <v>-39.39393939393956</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L333" t="n">
         <v>6.248000000000008</v>
@@ -17418,7 +17440,7 @@
         <v>10.68</v>
       </c>
       <c r="K334" t="n">
-        <v>-39.39393939393956</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L334" t="n">
         <v>6.249000000000009</v>
@@ -17469,7 +17491,7 @@
         <v>10.68</v>
       </c>
       <c r="K335" t="n">
-        <v>-37.50000000000021</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L335" t="n">
         <v>6.250000000000009</v>
@@ -17520,7 +17542,7 @@
         <v>10.69</v>
       </c>
       <c r="K336" t="n">
-        <v>-35.48387096774218</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L336" t="n">
         <v>6.250000000000009</v>
@@ -17571,7 +17593,7 @@
         <v>10.7</v>
       </c>
       <c r="K337" t="n">
-        <v>-26.66666666666694</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L337" t="n">
         <v>6.25200000000001</v>
@@ -17622,7 +17644,7 @@
         <v>10.7</v>
       </c>
       <c r="K338" t="n">
-        <v>-24.13793103448308</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L338" t="n">
         <v>6.24700000000001</v>
@@ -17673,7 +17695,7 @@
         <v>10.76</v>
       </c>
       <c r="K339" t="n">
-        <v>9.677419354838886</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L339" t="n">
         <v>6.24600000000001</v>
@@ -17724,7 +17746,7 @@
         <v>10.86</v>
       </c>
       <c r="K340" t="n">
-        <v>-20.00000000000018</v>
+        <v>-44.00000000000013</v>
       </c>
       <c r="L340" t="n">
         <v>6.23500000000001</v>
@@ -17775,7 +17797,7 @@
         <v>10.86</v>
       </c>
       <c r="K341" t="n">
-        <v>-17.94871794871816</v>
+        <v>-44.00000000000013</v>
       </c>
       <c r="L341" t="n">
         <v>6.22400000000001</v>
@@ -17826,7 +17848,7 @@
         <v>10.86</v>
       </c>
       <c r="K342" t="n">
-        <v>-8.571428571428696</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L342" t="n">
         <v>6.21300000000001</v>
@@ -17877,7 +17899,7 @@
         <v>10.87</v>
       </c>
       <c r="K343" t="n">
-        <v>-11.11111111111119</v>
+        <v>-26.31578947368419</v>
       </c>
       <c r="L343" t="n">
         <v>6.20800000000001</v>
@@ -17928,7 +17950,7 @@
         <v>10.89</v>
       </c>
       <c r="K344" t="n">
-        <v>-15.78947368421054</v>
+        <v>-33.33333333333319</v>
       </c>
       <c r="L344" t="n">
         <v>6.20100000000001</v>
@@ -17979,7 +18001,7 @@
         <v>10.9</v>
       </c>
       <c r="K345" t="n">
-        <v>-12.82051282051287</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L345" t="n">
         <v>6.19500000000001</v>
@@ -18030,7 +18052,7 @@
         <v>10.9</v>
       </c>
       <c r="K346" t="n">
-        <v>-12.82051282051287</v>
+        <v>-29.99999999999991</v>
       </c>
       <c r="L346" t="n">
         <v>6.19000000000001</v>
@@ -18081,7 +18103,7 @@
         <v>10.9</v>
       </c>
       <c r="K347" t="n">
-        <v>-10.52631578947377</v>
+        <v>-29.99999999999991</v>
       </c>
       <c r="L347" t="n">
         <v>6.18400000000001</v>
@@ -18132,7 +18154,7 @@
         <v>10.9</v>
       </c>
       <c r="K348" t="n">
-        <v>-35.4838709677419</v>
+        <v>-85.71428571428653</v>
       </c>
       <c r="L348" t="n">
         <v>6.17800000000001</v>
@@ -18183,7 +18205,7 @@
         <v>10.93</v>
       </c>
       <c r="K349" t="n">
-        <v>-31.24999999999986</v>
+        <v>14.28571428571519</v>
       </c>
       <c r="L349" t="n">
         <v>6.169000000000009</v>
@@ -18234,7 +18256,7 @@
         <v>11</v>
       </c>
       <c r="K350" t="n">
-        <v>-7.692307692307746</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L350" t="n">
         <v>6.17700000000001</v>
@@ -18285,7 +18307,7 @@
         <v>11.02</v>
       </c>
       <c r="K351" t="n">
-        <v>-2.43902439024385</v>
+        <v>62.50000000000028</v>
       </c>
       <c r="L351" t="n">
         <v>6.18700000000001</v>
@@ -18336,7 +18358,7 @@
         <v>11.04</v>
       </c>
       <c r="K352" t="n">
-        <v>-6.976744186046574</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L352" t="n">
         <v>6.195000000000009</v>
@@ -18387,7 +18409,7 @@
         <v>11.04</v>
       </c>
       <c r="K353" t="n">
-        <v>11.11111111111114</v>
+        <v>73.33333333333279</v>
       </c>
       <c r="L353" t="n">
         <v>6.20400000000001</v>
@@ -18438,7 +18460,7 @@
         <v>11.05</v>
       </c>
       <c r="K354" t="n">
-        <v>13.51351351351349</v>
+        <v>73.33333333333279</v>
       </c>
       <c r="L354" t="n">
         <v>6.216000000000009</v>
@@ -18489,7 +18511,7 @@
         <v>11.13</v>
       </c>
       <c r="K355" t="n">
-        <v>-6.666666666666535</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L355" t="n">
         <v>6.21900000000001</v>
@@ -18540,7 +18562,7 @@
         <v>11.13</v>
       </c>
       <c r="K356" t="n">
-        <v>-4.545454545454454</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L356" t="n">
         <v>6.22200000000001</v>
@@ -18591,7 +18613,7 @@
         <v>11.14</v>
       </c>
       <c r="K357" t="n">
-        <v>-4.545454545454454</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L357" t="n">
         <v>6.226000000000011</v>
@@ -18642,7 +18664,7 @@
         <v>11.14</v>
       </c>
       <c r="K358" t="n">
-        <v>-4.545454545454454</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L358" t="n">
         <v>6.230000000000011</v>
@@ -18693,7 +18715,7 @@
         <v>11.14</v>
       </c>
       <c r="K359" t="n">
-        <v>-21.05263157894744</v>
+        <v>-42.85714285714295</v>
       </c>
       <c r="L359" t="n">
         <v>6.231000000000011</v>
@@ -18744,7 +18766,7 @@
         <v>11.14</v>
       </c>
       <c r="K360" t="n">
-        <v>7.142857142857324</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L360" t="n">
         <v>6.225000000000012</v>
@@ -18795,7 +18817,7 @@
         <v>11.22</v>
       </c>
       <c r="K361" t="n">
-        <v>-16.66666666666659</v>
+        <v>-77.77777777777773</v>
       </c>
       <c r="L361" t="n">
         <v>6.209000000000012</v>
@@ -18846,7 +18868,7 @@
         <v>11.23</v>
       </c>
       <c r="K362" t="n">
-        <v>-13.51351351351349</v>
+        <v>-68.42105263157907</v>
       </c>
       <c r="L362" t="n">
         <v>6.196000000000011</v>
@@ -18897,7 +18919,7 @@
         <v>11.26</v>
       </c>
       <c r="K363" t="n">
-        <v>-2.564102564102518</v>
+        <v>-52.38095238095234</v>
       </c>
       <c r="L363" t="n">
         <v>6.186000000000012</v>
@@ -18948,7 +18970,7 @@
         <v>11.3</v>
       </c>
       <c r="K364" t="n">
-        <v>-7.317073170731797</v>
+        <v>-41.17647058823591</v>
       </c>
       <c r="L364" t="n">
         <v>6.171000000000012</v>
@@ -18999,7 +19021,7 @@
         <v>11.31</v>
       </c>
       <c r="K365" t="n">
-        <v>-12.19512195121952</v>
+        <v>-44.44444444444499</v>
       </c>
       <c r="L365" t="n">
         <v>6.163000000000013</v>
@@ -19050,7 +19072,7 @@
         <v>11.31</v>
       </c>
       <c r="K366" t="n">
-        <v>-12.19512195121952</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L366" t="n">
         <v>6.155000000000013</v>
@@ -19101,7 +19123,7 @@
         <v>11.31</v>
       </c>
       <c r="K367" t="n">
-        <v>-12.19512195121952</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L367" t="n">
         <v>6.146000000000012</v>
@@ -19152,7 +19174,7 @@
         <v>11.67</v>
       </c>
       <c r="K368" t="n">
-        <v>40.25974025974033</v>
+        <v>50.94339622641525</v>
       </c>
       <c r="L368" t="n">
         <v>6.173000000000012</v>
@@ -19203,7 +19225,7 @@
         <v>11.81</v>
       </c>
       <c r="K369" t="n">
-        <v>15.90909090909096</v>
+        <v>19.40298507462695</v>
       </c>
       <c r="L369" t="n">
         <v>6.186000000000011</v>
@@ -19254,7 +19276,7 @@
         <v>11.82</v>
       </c>
       <c r="K370" t="n">
-        <v>7.317073170731812</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L370" t="n">
         <v>6.198000000000012</v>
@@ -19305,7 +19327,7 @@
         <v>11.84</v>
       </c>
       <c r="K371" t="n">
-        <v>7.317073170731704</v>
+        <v>34.42622950819695</v>
       </c>
       <c r="L371" t="n">
         <v>6.220000000000012</v>
@@ -19356,7 +19378,7 @@
         <v>11.9</v>
       </c>
       <c r="K372" t="n">
-        <v>16.27906976744201</v>
+        <v>37.50000000000021</v>
       </c>
       <c r="L372" t="n">
         <v>6.247000000000012</v>
@@ -19407,7 +19429,7 @@
         <v>11.95</v>
       </c>
       <c r="K373" t="n">
-        <v>9.890109890109912</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L373" t="n">
         <v>6.266000000000012</v>
@@ -19458,7 +19480,7 @@
         <v>12</v>
       </c>
       <c r="K374" t="n">
-        <v>3.15789473684214</v>
+        <v>27.53623188405792</v>
       </c>
       <c r="L374" t="n">
         <v>6.284000000000012</v>
@@ -19509,7 +19531,7 @@
         <v>12</v>
       </c>
       <c r="K375" t="n">
-        <v>12.64367816091951</v>
+        <v>27.53623188405792</v>
       </c>
       <c r="L375" t="n">
         <v>6.303000000000013</v>
@@ -19560,7 +19582,7 @@
         <v>12.01</v>
       </c>
       <c r="K376" t="n">
-        <v>11.36363636363636</v>
+        <v>25.7142857142857</v>
       </c>
       <c r="L376" t="n">
         <v>6.321000000000014</v>
@@ -19611,7 +19633,7 @@
         <v>12.01</v>
       </c>
       <c r="K377" t="n">
-        <v>10.34482758620691</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L377" t="n">
         <v>6.339000000000015</v>
@@ -19662,7 +19684,7 @@
         <v>12.04</v>
       </c>
       <c r="K378" t="n">
-        <v>6.666666666666647</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L378" t="n">
         <v>6.318000000000015</v>
@@ -19713,7 +19735,7 @@
         <v>12.13</v>
       </c>
       <c r="K379" t="n">
-        <v>15.15151515151515</v>
+        <v>9.677419354838488</v>
       </c>
       <c r="L379" t="n">
         <v>6.320000000000014</v>
@@ -19764,7 +19786,7 @@
         <v>12.14</v>
       </c>
       <c r="K380" t="n">
-        <v>14.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>6.322000000000015</v>
@@ -19815,7 +19837,7 @@
         <v>12.28</v>
       </c>
       <c r="K381" t="n">
-        <v>7.547169811320796</v>
+        <v>-52.63157894736861</v>
       </c>
       <c r="L381" t="n">
         <v>6.308000000000014</v>
@@ -19866,7 +19888,7 @@
         <v>12.42</v>
       </c>
       <c r="K382" t="n">
-        <v>17.64705882352947</v>
+        <v>-2.127659574468045</v>
       </c>
       <c r="L382" t="n">
         <v>6.302000000000015</v>
@@ -19917,7 +19939,7 @@
         <v>12.44</v>
       </c>
       <c r="K383" t="n">
-        <v>16.94915254237295</v>
+        <v>13.63636363636382</v>
       </c>
       <c r="L383" t="n">
         <v>6.303000000000015</v>
@@ -19968,7 +19990,7 @@
         <v>12.51</v>
       </c>
       <c r="K384" t="n">
-        <v>14.04958677685953</v>
+        <v>-1.960784313725456</v>
       </c>
       <c r="L384" t="n">
         <v>6.302000000000016</v>
@@ -20019,7 +20041,7 @@
         <v>12.52</v>
       </c>
       <c r="K385" t="n">
-        <v>15.70247933884297</v>
+        <v>1.960784313725456</v>
       </c>
       <c r="L385" t="n">
         <v>6.302000000000016</v>
@@ -20070,7 +20092,7 @@
         <v>12.52</v>
       </c>
       <c r="K386" t="n">
-        <v>15.70247933884297</v>
+        <v>1.960784313725456</v>
       </c>
       <c r="L386" t="n">
         <v>6.303000000000015</v>
@@ -20121,7 +20143,7 @@
         <v>12.53</v>
       </c>
       <c r="K387" t="n">
-        <v>14.75409836065575</v>
+        <v>6.122448979591907</v>
       </c>
       <c r="L387" t="n">
         <v>6.303000000000015</v>
@@ -20172,7 +20194,7 @@
         <v>12.55</v>
       </c>
       <c r="K388" t="n">
-        <v>-22.72727272727282</v>
+        <v>-19.04761904761915</v>
       </c>
       <c r="L388" t="n">
         <v>6.304000000000015</v>
@@ -20223,7 +20245,7 @@
         <v>12.58</v>
       </c>
       <c r="K389" t="n">
-        <v>-3.896103896103931</v>
+        <v>-9.090909090909109</v>
       </c>
       <c r="L389" t="n">
         <v>6.299000000000015</v>
@@ -20274,7 +20296,7 @@
         <v>12.62</v>
       </c>
       <c r="K390" t="n">
-        <v>2.49999999999995</v>
+        <v>41.17647058823522</v>
       </c>
       <c r="L390" t="n">
         <v>6.299000000000015</v>
@@ -20325,7 +20347,7 @@
         <v>12.66</v>
       </c>
       <c r="K391" t="n">
-        <v>-4.878048780487818</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L391" t="n">
         <v>6.309000000000014</v>
@@ -20376,7 +20398,7 @@
         <v>12.74</v>
       </c>
       <c r="K392" t="n">
-        <v>-2.380952380952441</v>
+        <v>6.666666666666549</v>
       </c>
       <c r="L392" t="n">
         <v>6.313000000000014</v>
@@ -20427,7 +20449,7 @@
         <v>12.77</v>
       </c>
       <c r="K393" t="n">
-        <v>7.317073170731797</v>
+        <v>46.15384615384655</v>
       </c>
       <c r="L393" t="n">
         <v>6.318000000000014</v>
@@ -20478,7 +20500,7 @@
         <v>12.84</v>
       </c>
       <c r="K394" t="n">
-        <v>4.761904761904788</v>
+        <v>12.50000000000007</v>
       </c>
       <c r="L394" t="n">
         <v>6.323000000000014</v>
@@ -20529,7 +20551,7 @@
         <v>12.85</v>
       </c>
       <c r="K395" t="n">
-        <v>3.529411764705928</v>
+        <v>9.090909090909213</v>
       </c>
       <c r="L395" t="n">
         <v>6.326000000000015</v>
@@ -20580,7 +20602,7 @@
         <v>12.87</v>
       </c>
       <c r="K396" t="n">
-        <v>6.976744186046499</v>
+        <v>17.6470588235294</v>
       </c>
       <c r="L396" t="n">
         <v>6.331000000000015</v>
@@ -20631,7 +20653,7 @@
         <v>12.89</v>
       </c>
       <c r="K397" t="n">
-        <v>9.090909090909127</v>
+        <v>29.41176470588252</v>
       </c>
       <c r="L397" t="n">
         <v>6.339000000000015</v>
@@ -20682,7 +20704,7 @@
         <v>12.93</v>
       </c>
       <c r="K398" t="n">
-        <v>16.85393258426976</v>
+        <v>31.42857142857171</v>
       </c>
       <c r="L398" t="n">
         <v>6.353000000000016</v>
@@ -20733,7 +20755,7 @@
         <v>12.98</v>
       </c>
       <c r="K399" t="n">
-        <v>1.176470588235377</v>
+        <v>5.555555555555693</v>
       </c>
       <c r="L399" t="n">
         <v>6.359000000000016</v>
@@ -20784,7 +20806,7 @@
         <v>12.99</v>
       </c>
       <c r="K400" t="n">
-        <v>1.17647058823527</v>
+        <v>15.15151515151501</v>
       </c>
       <c r="L400" t="n">
         <v>6.360000000000015</v>
@@ -20835,7 +20857,7 @@
         <v>12.99</v>
       </c>
       <c r="K401" t="n">
-        <v>21.12676056338018</v>
+        <v>-12.00000000000001</v>
       </c>
       <c r="L401" t="n">
         <v>6.365000000000014</v>
@@ -20886,7 +20908,7 @@
         <v>13.1</v>
       </c>
       <c r="K402" t="n">
-        <v>-14.70588235294113</v>
+        <v>-51.5151515151512</v>
       </c>
       <c r="L402" t="n">
         <v>6.351000000000014</v>
@@ -20937,7 +20959,7 @@
         <v>13.13</v>
       </c>
       <c r="K403" t="n">
-        <v>-13.04347826086968</v>
+        <v>-24.13793103448278</v>
       </c>
       <c r="L403" t="n">
         <v>6.337000000000015</v>
@@ -20988,7 +21010,7 @@
         <v>13.2</v>
       </c>
       <c r="K404" t="n">
-        <v>7.246376811594183</v>
+        <v>2.857142857142784</v>
       </c>
       <c r="L404" t="n">
         <v>6.337000000000015</v>
@@ -21039,7 +21061,7 @@
         <v>13.2</v>
       </c>
       <c r="K405" t="n">
-        <v>5.882352941176478</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="L405" t="n">
         <v>6.338000000000015</v>
@@ -21090,7 +21112,7 @@
         <v>13.21</v>
       </c>
       <c r="K406" t="n">
-        <v>7.246376811594183</v>
+        <v>-6.250000000000139</v>
       </c>
       <c r="L406" t="n">
         <v>6.338000000000014</v>
@@ -21141,7 +21163,7 @@
         <v>13.3</v>
       </c>
       <c r="K407" t="n">
-        <v>-3.896103896103931</v>
+        <v>-40.54054054054053</v>
       </c>
       <c r="L407" t="n">
         <v>6.327000000000014</v>
@@ -21192,7 +21214,7 @@
         <v>13.34</v>
       </c>
       <c r="K408" t="n">
-        <v>-6.329113924050617</v>
+        <v>-38.88888888888911</v>
       </c>
       <c r="L408" t="n">
         <v>6.308000000000016</v>
@@ -21243,7 +21265,7 @@
         <v>13.38</v>
       </c>
       <c r="K409" t="n">
-        <v>-5.000000000000022</v>
+        <v>-23.07692307692322</v>
       </c>
       <c r="L409" t="n">
         <v>6.298000000000016</v>
@@ -21294,7 +21316,7 @@
         <v>13.43</v>
       </c>
       <c r="K410" t="n">
-        <v>-16.0493827160494</v>
+        <v>-31.81818181818191</v>
       </c>
       <c r="L410" t="n">
         <v>6.284000000000015</v>
@@ -21345,7 +21367,7 @@
         <v>13.47</v>
       </c>
       <c r="K411" t="n">
-        <v>-6.172839506172827</v>
+        <v>2.702702702702664</v>
       </c>
       <c r="L411" t="n">
         <v>6.274000000000014</v>
@@ -21396,7 +21418,7 @@
         <v>13.50999999999999</v>
       </c>
       <c r="K412" t="n">
-        <v>-11.6883116883117</v>
+        <v>5.263157894737002</v>
       </c>
       <c r="L412" t="n">
         <v>6.279000000000014</v>
@@ -21447,7 +21469,7 @@
         <v>13.52999999999999</v>
       </c>
       <c r="K413" t="n">
-        <v>-13.15789473684221</v>
+        <v>-9.090909090909262</v>
       </c>
       <c r="L413" t="n">
         <v>6.283000000000014</v>
@@ -21498,7 +21520,7 @@
         <v>13.61999999999999</v>
       </c>
       <c r="K414" t="n">
-        <v>-15.38461538461545</v>
+        <v>-28.57142857142884</v>
       </c>
       <c r="L414" t="n">
         <v>6.271000000000013</v>
@@ -21549,7 +21571,7 @@
         <v>13.72999999999999</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-3.846153846153793</v>
       </c>
       <c r="L415" t="n">
         <v>6.270000000000013</v>
@@ -21600,7 +21622,7 @@
         <v>13.74999999999999</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>20.00000000000016</v>
       </c>
       <c r="L416" t="n">
         <v>6.270000000000012</v>
@@ -21651,7 +21673,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K417" t="n">
-        <v>-7.692307692307752</v>
+        <v>17.39130434782621</v>
       </c>
       <c r="L417" t="n">
         <v>6.274000000000013</v>
@@ -21702,7 +21724,7 @@
         <v>13.81999999999999</v>
       </c>
       <c r="K418" t="n">
-        <v>-10.11235955056182</v>
+        <v>13.63636363636382</v>
       </c>
       <c r="L418" t="n">
         <v>6.284000000000013</v>
@@ -21753,7 +21775,7 @@
         <v>13.86999999999999</v>
       </c>
       <c r="K419" t="n">
-        <v>-10.11235955056192</v>
+        <v>13.63636363636362</v>
       </c>
       <c r="L419" t="n">
         <v>6.285000000000013</v>
@@ -21804,7 +21826,7 @@
         <v>13.92999999999999</v>
       </c>
       <c r="K420" t="n">
-        <v>-2.127659574468049</v>
+        <v>17.39130434782614</v>
       </c>
       <c r="L420" t="n">
         <v>6.297000000000013</v>
@@ -21855,7 +21877,7 @@
         <v>13.92999999999999</v>
       </c>
       <c r="K421" t="n">
-        <v>-2.127659574468049</v>
+        <v>9.523809523809534</v>
       </c>
       <c r="L421" t="n">
         <v>6.305000000000014</v>
@@ -21906,7 +21928,7 @@
         <v>13.95999999999999</v>
       </c>
       <c r="K422" t="n">
-        <v>6.976744186046499</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L422" t="n">
         <v>6.306000000000013</v>
@@ -21957,7 +21979,7 @@
         <v>13.96999999999999</v>
       </c>
       <c r="K423" t="n">
-        <v>2.380952380952446</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L423" t="n">
         <v>6.304000000000014</v>
@@ -22008,7 +22030,7 @@
         <v>13.98999999999999</v>
       </c>
       <c r="K424" t="n">
-        <v>-3.797468354430432</v>
+        <v>-7.692307692307876</v>
       </c>
       <c r="L424" t="n">
         <v>6.313000000000014</v>
@@ -22059,7 +22081,7 @@
         <v>13.98999999999999</v>
       </c>
       <c r="K425" t="n">
-        <v>-3.797468354430432</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L425" t="n">
         <v>6.311000000000014</v>
@@ -22110,7 +22132,7 @@
         <v>14.01999999999999</v>
       </c>
       <c r="K426" t="n">
-        <v>-8.641975308641953</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L426" t="n">
         <v>6.304000000000014</v>
@@ -22161,7 +22183,7 @@
         <v>14.01999999999999</v>
       </c>
       <c r="K427" t="n">
-        <v>2.77777777777786</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L427" t="n">
         <v>6.302000000000014</v>
@@ -22212,7 +22234,7 @@
         <v>14.02999999999999</v>
       </c>
       <c r="K428" t="n">
-        <v>10.14492753623198</v>
+        <v>12.50000000000042</v>
       </c>
       <c r="L428" t="n">
         <v>6.299000000000015</v>

--- a/BackTest/2019-10-17 BackTest HYC.xlsx
+++ b/BackTest/2019-10-17 BackTest HYC.xlsx
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -4931,14 +4931,20 @@
         <v>6.544833333333332</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.26</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4972,20 @@
         <v>6.536499999999999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.32</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5001,14 +5013,20 @@
         <v>6.528166666666666</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.26</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5036,14 +5054,20 @@
         <v>6.520499999999998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.26</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +5095,20 @@
         <v>6.512499999999998</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.28</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +5136,20 @@
         <v>6.505833333333332</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.27</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5141,14 +5177,20 @@
         <v>6.499166666666666</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5225,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5264,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5303,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5342,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5381,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5420,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5459,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5498,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5537,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5576,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5615,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5654,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5693,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5732,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5771,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5810,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5849,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5888,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5927,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5966,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6005,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6044,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6083,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6122,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6161,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6200,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6239,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6278,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6317,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6356,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6395,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6434,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6473,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6512,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6551,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6590,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6629,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6668,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6707,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6746,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6785,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6824,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6863,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6902,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6941,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6980,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7019,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7058,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7097,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7136,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7175,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7214,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7253,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7292,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7331,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7370,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7409,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7448,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7487,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7526,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7565,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7604,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7643,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7682,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7721,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7760,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7799,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7838,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7877,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7916,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7955,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +7994,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8033,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8072,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8111,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8150,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8189,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8228,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8267,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8306,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8345,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8384,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8423,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8462,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8501,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8540,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8579,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8618,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8657,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8696,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +8735,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +8774,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8813,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8852,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8891,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8930,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +8969,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9008,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9047,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9086,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9125,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +9164,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9203,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9242,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9281,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9320,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9359,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9398,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9437,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9476,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9515,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9554,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9593,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9632,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9671,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9710,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9749,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +9788,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9827,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9866,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9905,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9944,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9983,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +10022,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +10061,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10100,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +10139,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +10178,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10217,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10256,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10295,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10334,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10373,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10412,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10451,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10490,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10529,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10568,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10607,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10646,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10685,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +10724,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +10763,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10802,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10841,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +10880,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10919,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +10958,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +10997,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11036,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +11075,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +11114,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +11153,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +11192,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11231,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11270,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +11309,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10678,7 +11348,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11387,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +11426,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11465,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11504,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11543,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10888,7 +11582,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11621,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11660,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10993,7 +11699,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +11738,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11063,7 +11777,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11098,7 +11816,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11133,7 +11855,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11168,7 +11894,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11203,7 +11933,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11238,7 +11972,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11273,7 +12011,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11308,7 +12050,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +12089,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12128,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +12167,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11448,7 +12206,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11483,7 +12245,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11518,7 +12284,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11553,7 +12323,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11588,7 +12362,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11623,7 +12401,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11658,7 +12440,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11693,7 +12479,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11728,7 +12518,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11763,7 +12557,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +12596,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11833,7 +12635,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12674,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +12713,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11938,7 +12752,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11973,7 +12791,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12008,7 +12830,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +12869,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12078,7 +12908,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +12947,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12148,7 +12986,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12183,7 +13025,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12218,7 +13064,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12253,7 +13103,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12288,7 +13142,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12323,7 +13181,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12358,7 +13220,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12386,18 +13252,18 @@
         <v>6.269999999999998</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="K343" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="L343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12425,20 +13291,16 @@
         <v>6.266499999999997</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="K344" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M344" t="n">
@@ -12468,17 +13330,13 @@
         <v>6.264166666666664</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K345" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12511,17 +13369,13 @@
         <v>6.261499999999998</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K346" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12554,17 +13408,13 @@
         <v>6.259999999999999</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K347" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12597,17 +13447,13 @@
         <v>6.257499999999999</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K348" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12640,17 +13486,13 @@
         <v>6.255499999999999</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K349" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12683,17 +13525,13 @@
         <v>6.254499999999998</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="K350" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12732,11 +13570,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="K351" t="n">
-        <v>6.17</v>
-      </c>
+        <v>6.26</v>
+      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12775,11 +13611,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K352" t="n">
-        <v>6.17</v>
-      </c>
+        <v>6.28</v>
+      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12812,17 +13646,13 @@
         <v>6.254333333333332</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K353" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12855,17 +13685,13 @@
         <v>6.254333333333332</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="K354" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12898,17 +13724,13 @@
         <v>6.252999999999999</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="K355" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12947,9 +13769,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12982,17 +13802,13 @@
         <v>6.2505</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K357" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13025,17 +13841,13 @@
         <v>6.249333333333333</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K358" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13068,17 +13880,13 @@
         <v>6.248166666666666</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K359" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,17 +13919,13 @@
         <v>6.246166666666666</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K360" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13154,17 +13958,13 @@
         <v>6.243666666666667</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="K361" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13197,17 +13997,13 @@
         <v>6.241333333333333</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K362" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13240,17 +14036,13 @@
         <v>6.239500000000001</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K363" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13283,17 +14075,13 @@
         <v>6.236833333333335</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K364" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13326,17 +14114,13 @@
         <v>6.234000000000003</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="K365" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13369,17 +14153,13 @@
         <v>6.230500000000003</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="K366" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13412,17 +14192,13 @@
         <v>6.226833333333336</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="K367" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13455,17 +14231,13 @@
         <v>6.229166666666671</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="K368" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13504,11 +14276,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="K369" t="n">
-        <v>6.17</v>
-      </c>
+        <v>6.47</v>
+      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13547,9 +14317,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13588,9 +14356,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13629,9 +14395,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,9 +14434,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13711,9 +14473,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13752,9 +14512,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13793,9 +14551,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13834,9 +14590,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13875,9 +14629,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13916,9 +14668,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13957,9 +14707,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13998,9 +14746,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14039,9 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14080,9 +14824,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14121,9 +14863,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14162,9 +14902,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,9 +14941,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14244,9 +14980,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14285,9 +15019,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14326,9 +15058,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14367,9 +15097,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14408,9 +15136,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14449,9 +15175,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14490,9 +15214,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14531,9 +15253,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14572,9 +15292,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14613,9 +15331,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14654,9 +15370,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14695,9 +15409,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14736,9 +15448,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14777,9 +15487,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14818,9 +15526,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14859,9 +15565,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14900,9 +15604,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14941,9 +15643,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14982,9 +15682,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15023,9 +15721,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15064,9 +15760,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>6.17</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-17 BackTest HYC.xlsx
+++ b/BackTest/2019-10-17 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1373124.1763</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.01</v>
@@ -523,7 +523,7 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.08</v>
@@ -562,7 +562,7 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6.08</v>
@@ -601,7 +601,7 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.08</v>
@@ -640,7 +640,7 @@
         <v>-1370782.9171</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6.08</v>
@@ -679,7 +679,7 @@
         <v>-1370782.9171</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>6.05</v>
@@ -718,7 +718,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6.05</v>
@@ -757,7 +757,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6.08</v>
@@ -796,7 +796,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6.08</v>
@@ -835,7 +835,7 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.08</v>
@@ -874,7 +874,7 @@
         <v>-1370722.3844</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.08</v>
@@ -913,7 +913,7 @@
         <v>-1370621.3844</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.01</v>
@@ -952,7 +952,7 @@
         <v>-1370711.3844</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.07</v>
@@ -991,7 +991,7 @@
         <v>-1370681.3844</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.04</v>
@@ -1030,7 +1030,7 @@
         <v>-1370659.3844</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.05</v>
@@ -1069,7 +1069,7 @@
         <v>-1370659.3844</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>6.07</v>
@@ -1108,7 +1108,7 @@
         <v>-1370532.4766</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>6.07</v>
@@ -1147,7 +1147,7 @@
         <v>-1370532.4766</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6.08</v>
@@ -1186,7 +1186,7 @@
         <v>-1378810.6222</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>6.08</v>
@@ -1225,7 +1225,7 @@
         <v>-1218555.6222</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6.04</v>
@@ -1264,7 +1264,7 @@
         <v>-1218555.6222</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>6.07</v>
@@ -1303,7 +1303,7 @@
         <v>-1638603.5349</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6.07</v>
@@ -1342,7 +1342,7 @@
         <v>-2279040.3199</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>6</v>
@@ -1381,7 +1381,7 @@
         <v>-1954596.3199</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>5.97</v>
@@ -1420,7 +1420,7 @@
         <v>-1954596.3199</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>6.04</v>
@@ -1459,7 +1459,7 @@
         <v>-1255405.3814</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6.04</v>
@@ -1498,7 +1498,7 @@
         <v>-1255732.6641</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>6.18</v>
@@ -1537,7 +1537,7 @@
         <v>-1255696.6641</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>6.01</v>
@@ -1576,7 +1576,7 @@
         <v>-1256696.6641</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>6.14</v>
@@ -1615,7 +1615,7 @@
         <v>-1255730.0473</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>6.07</v>
@@ -1654,7 +1654,7 @@
         <v>-1255720.0473</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>6.16</v>
@@ -1693,9 +1693,11 @@
         <v>-2768522.961300001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6.19</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1730,7 +1732,7 @@
         <v>-2768540.961300001</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>6.17</v>
@@ -1769,7 +1771,7 @@
         <v>-2768587.961300001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>6.16</v>
@@ -1808,7 +1810,7 @@
         <v>-2768540.961300001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>6.13</v>
@@ -1847,7 +1849,7 @@
         <v>-2768490.669600001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>6.16</v>
@@ -1886,9 +1888,11 @@
         <v>-2768490.669600001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.17</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1923,7 +1927,7 @@
         <v>-3032287.125800001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>6.17</v>
@@ -1962,7 +1966,7 @@
         <v>-3032287.125800001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>6.11</v>
@@ -2001,9 +2005,11 @@
         <v>-3031058.760000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>6.11</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2038,9 +2044,11 @@
         <v>-2666905.080400001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6.14</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2075,7 +2083,7 @@
         <v>-1608801.341700001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>6.19</v>
@@ -2114,9 +2122,11 @@
         <v>-1132431.924500001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6.23</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2151,9 +2161,11 @@
         <v>877663.4756999994</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.25</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -3113,7 +3125,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3335,18 +3347,16 @@
         <v>31583160.03071677</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3372,15 +3382,11 @@
         <v>31335844.72631677</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3409,15 +3415,11 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3446,15 +3448,11 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3483,15 +3481,11 @@
         <v>29558751.06321677</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3520,15 +3514,11 @@
         <v>25290892.79331677</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3557,15 +3547,11 @@
         <v>20045795.66421677</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3594,15 +3580,11 @@
         <v>18813964.90181677</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3631,15 +3613,11 @@
         <v>18877423.90611676</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3668,15 +3646,11 @@
         <v>19288686.90221677</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3705,15 +3679,11 @@
         <v>19289368.90221677</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3746,11 +3716,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3783,11 +3749,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +3782,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +3815,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3848,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3931,11 +3881,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3968,11 +3914,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4005,11 +3947,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3980,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4079,11 +4013,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4116,11 +4046,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4153,11 +4079,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4190,11 +4112,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4227,11 +4145,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4260,15 +4174,11 @@
         <v>21430384.08795163</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4297,16 +4207,14 @@
         <v>22163434.82507546</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
       <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -4332,7 +4240,7 @@
         <v>21955749.71055166</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4365,7 +4273,7 @@
         <v>21958952.71055166</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4398,7 +4306,7 @@
         <v>21958952.71055166</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4464,7 +4372,7 @@
         <v>21764398.05695166</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4497,7 +4405,7 @@
         <v>21399228.57825166</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4530,7 +4438,7 @@
         <v>21386512.39465166</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4563,7 +4471,7 @@
         <v>21221374.14165166</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4596,7 +4504,7 @@
         <v>21195374.14165166</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4629,7 +4537,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4662,7 +4570,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4695,7 +4603,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4728,7 +4636,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4761,7 +4669,7 @@
         <v>21127096.31275165</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4794,7 +4702,7 @@
         <v>20687816.76915165</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4827,7 +4735,7 @@
         <v>20033025.63235166</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4860,7 +4768,7 @@
         <v>20099617.48545166</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4893,7 +4801,7 @@
         <v>20240737.1226024</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4926,7 +4834,7 @@
         <v>20240737.1226024</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4959,7 +4867,7 @@
         <v>20240737.1226024</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4992,7 +4900,7 @@
         <v>20561428.2232024</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5025,7 +4933,7 @@
         <v>20022023.6243024</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5058,7 +4966,7 @@
         <v>20022023.6243024</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5091,7 +4999,7 @@
         <v>20022091.6243024</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5124,7 +5032,7 @@
         <v>20022081.6243024</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5157,7 +5065,7 @@
         <v>20022111.6243024</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5388,7 +5296,7 @@
         <v>19977557.8312024</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5421,7 +5329,7 @@
         <v>19977557.8312024</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5454,7 +5362,7 @@
         <v>19637405.9003024</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5487,7 +5395,7 @@
         <v>19637415.9003024</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5520,7 +5428,7 @@
         <v>19636904.9003024</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5553,7 +5461,7 @@
         <v>19905317.36674358</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5586,7 +5494,7 @@
         <v>19842973.84664358</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5652,7 +5560,7 @@
         <v>19807347.35234358</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -7665,7 +7573,7 @@
         <v>15142668.91712606</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7698,7 +7606,7 @@
         <v>15142668.91712606</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7731,7 +7639,7 @@
         <v>15059043.20782606</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7764,7 +7672,7 @@
         <v>15058854.21542606</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7797,7 +7705,7 @@
         <v>15058803.21542606</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7863,7 +7771,7 @@
         <v>15108904.21542606</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7995,7 +7903,7 @@
         <v>15180056.36102606</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8028,7 +7936,7 @@
         <v>15081290.19152606</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -9546,7 +9454,7 @@
         <v>14548835.10642606</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9579,7 +9487,7 @@
         <v>14548674.38662606</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9612,7 +9520,7 @@
         <v>14529838.25852606</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9678,7 +9586,7 @@
         <v>14530157.89522607</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9942,7 +9850,7 @@
         <v>14538147.61182607</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9975,7 +9883,7 @@
         <v>14501121.59302607</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10371,7 +10279,7 @@
         <v>14416605.80682607</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10404,7 +10312,7 @@
         <v>14408805.80682607</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10932,7 +10840,7 @@
         <v>14392781.86722607</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10965,7 +10873,7 @@
         <v>14392781.86722607</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10998,7 +10906,7 @@
         <v>14392781.86722607</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11031,7 +10939,7 @@
         <v>14378400.78452607</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11064,7 +10972,7 @@
         <v>14252974.72932607</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11097,7 +11005,7 @@
         <v>14252974.72932607</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -13275,7 +13183,7 @@
         <v>12339835.46442607</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13308,7 +13216,7 @@
         <v>12259835.46442607</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -16586,6 +16494,6 @@
       <c r="M476" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest HYC.xlsx
+++ b/BackTest/2019-10-17 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -601,11 +601,9 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -640,11 +638,9 @@
         <v>-1370782.9171</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -757,11 +753,9 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +790,9 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -1576,11 +1568,9 @@
         <v>-1256696.6641</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1615,11 +1605,9 @@
         <v>-1255730.0473</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1654,11 +1642,9 @@
         <v>-1255720.0473</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1693,11 +1679,9 @@
         <v>-2768522.961300001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1732,11 +1716,9 @@
         <v>-2768540.961300001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1771,11 +1753,9 @@
         <v>-2768587.961300001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1810,11 +1790,9 @@
         <v>-2768540.961300001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>6.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1849,11 +1827,9 @@
         <v>-2768490.669600001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1888,11 +1864,9 @@
         <v>-2768490.669600001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1927,11 +1901,9 @@
         <v>-3032287.125800001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1966,11 +1938,9 @@
         <v>-3032287.125800001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -2005,11 +1975,9 @@
         <v>-3031058.760000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2044,11 +2012,9 @@
         <v>-2666905.080400001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2083,11 +2049,9 @@
         <v>-1608801.341700001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2122,11 +2086,9 @@
         <v>-1132431.924500001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2161,11 +2123,9 @@
         <v>877663.4756999994</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2348,18 +2308,16 @@
         <v>5735682.103999999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2385,15 +2343,11 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2422,15 +2376,11 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2459,15 +2409,11 @@
         <v>11598368.3286</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2496,15 +2442,11 @@
         <v>14789771.3679</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2533,15 +2475,11 @@
         <v>18905767.76774561</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2570,15 +2508,11 @@
         <v>23445094.34314562</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2611,11 +2545,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2648,11 +2578,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2611,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2722,11 +2644,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2759,11 +2677,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2796,11 +2710,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2833,11 +2743,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2776,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2907,11 +2809,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +2842,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2981,11 +2875,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3018,11 +2908,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +2941,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +2974,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3129,11 +3007,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3166,11 +3040,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3203,11 +3073,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3240,11 +3106,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3277,11 +3139,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3172,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3347,16 +3201,14 @@
         <v>31583160.03071677</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
       <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
@@ -3382,7 +3234,7 @@
         <v>31335844.72631677</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3415,7 +3267,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3448,7 +3300,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3481,7 +3333,7 @@
         <v>29558751.06321677</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3514,7 +3366,7 @@
         <v>25290892.79331677</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3547,7 +3399,7 @@
         <v>20045795.66421677</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3580,7 +3432,7 @@
         <v>18813964.90181677</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3613,7 +3465,7 @@
         <v>18877423.90611676</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3646,7 +3498,7 @@
         <v>19288686.90221677</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3679,7 +3531,7 @@
         <v>19289368.90221677</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4174,7 +4026,7 @@
         <v>21430384.08795163</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4240,7 +4092,7 @@
         <v>21955749.71055166</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4273,7 +4125,7 @@
         <v>21958952.71055166</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4306,7 +4158,7 @@
         <v>21958952.71055166</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4504,7 +4356,7 @@
         <v>21195374.14165166</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4570,7 +4422,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4603,7 +4455,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4636,7 +4488,7 @@
         <v>21195686.31805165</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4669,7 +4521,7 @@
         <v>21127096.31275165</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4702,7 +4554,7 @@
         <v>20687816.76915165</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4735,7 +4587,7 @@
         <v>20033025.63235166</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4768,7 +4620,7 @@
         <v>20099617.48545166</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4801,7 +4653,7 @@
         <v>20240737.1226024</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4834,7 +4686,7 @@
         <v>20240737.1226024</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4867,7 +4719,7 @@
         <v>20240737.1226024</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4900,7 +4752,7 @@
         <v>20561428.2232024</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4933,7 +4785,7 @@
         <v>20022023.6243024</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4966,7 +4818,7 @@
         <v>20022023.6243024</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4999,7 +4851,7 @@
         <v>20022091.6243024</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5032,7 +4884,7 @@
         <v>20022081.6243024</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5065,7 +4917,7 @@
         <v>20022111.6243024</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5296,7 +5148,7 @@
         <v>19977557.8312024</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5329,7 +5181,7 @@
         <v>19977557.8312024</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5362,7 +5214,7 @@
         <v>19637405.9003024</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5395,7 +5247,7 @@
         <v>19637415.9003024</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5428,7 +5280,7 @@
         <v>19636904.9003024</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -8596,7 +8448,7 @@
         <v>14469810.86862606</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8629,7 +8481,7 @@
         <v>14478151.15872606</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8662,7 +8514,7 @@
         <v>14480115.61822606</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8695,7 +8547,7 @@
         <v>14480249.61822606</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9751,7 +9603,7 @@
         <v>14530717.73572607</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -15691,7 +15543,7 @@
         <v>9411483.144017274</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15724,7 +15576,7 @@
         <v>9410761.834717274</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16153,7 +16005,7 @@
         <v>9358142.210317271</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16494,6 +16346,6 @@
       <c r="M476" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest HYC.xlsx
+++ b/BackTest/2019-10-17 BackTest HYC.xlsx
@@ -601,9 +601,11 @@
         <v>-1370183.9171</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,9 +640,11 @@
         <v>-1370782.9171</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -753,9 +757,11 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -790,9 +796,11 @@
         <v>-1370671.9171</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -2308,16 +2316,18 @@
         <v>5735682.103999999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2343,11 +2353,15 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2376,11 +2390,15 @@
         <v>8042378.079299999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2427,15 @@
         <v>11598368.3286</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2464,15 @@
         <v>14789771.3679</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2475,11 +2501,15 @@
         <v>18905767.76774561</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2538,15 @@
         <v>23445094.34314562</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2545,7 +2579,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2578,7 +2616,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2611,7 +2653,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2644,7 +2690,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,7 +2727,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2710,7 +2764,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2743,7 +2801,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2776,7 +2838,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2805,14 +2871,16 @@
         <v>32489325.38466929</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2838,7 +2906,7 @@
         <v>31816040.12126929</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2871,7 +2939,7 @@
         <v>32005676.12051677</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2904,7 +2972,7 @@
         <v>31718910.59761677</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2937,7 +3005,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2970,7 +3038,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3003,7 +3071,7 @@
         <v>32520476.17821677</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3036,7 +3104,7 @@
         <v>32039359.38311677</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3069,7 +3137,7 @@
         <v>33020451.08921677</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3102,7 +3170,7 @@
         <v>32531026.73301677</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3135,7 +3203,7 @@
         <v>32340194.01001677</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3168,7 +3236,7 @@
         <v>31426809.13431677</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3201,7 +3269,7 @@
         <v>31583160.03071677</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3234,7 +3302,7 @@
         <v>31335844.72631677</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3267,7 +3335,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3300,7 +3368,7 @@
         <v>30348043.27811677</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3333,7 +3401,7 @@
         <v>29558751.06321677</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3366,7 +3434,7 @@
         <v>25290892.79331677</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3399,7 +3467,7 @@
         <v>20045795.66421677</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3432,7 +3500,7 @@
         <v>18813964.90181677</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3597,7 +3665,7 @@
         <v>20832771.75811677</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3630,7 +3698,7 @@
         <v>20769820.13072783</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3663,7 +3731,7 @@
         <v>20754921.59022783</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -8448,7 +8516,7 @@
         <v>14469810.86862606</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8481,7 +8549,7 @@
         <v>14478151.15872606</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8514,7 +8582,7 @@
         <v>14480115.61822606</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8547,7 +8615,7 @@
         <v>14480249.61822606</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9603,7 +9671,7 @@
         <v>14530717.73572607</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -15543,7 +15611,7 @@
         <v>9411483.144017274</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15576,7 +15644,7 @@
         <v>9410761.834717274</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16005,7 +16073,7 @@
         <v>9358142.210317271</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
